--- a/Base/Teams/Bills/Team Data.xlsx
+++ b/Base/Teams/Bills/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 3 3 3 -3 -2 7 6 3 3 4 1 2 4 2 5 7 2 2 6 4 34 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 2 2 2 1 -1 -3 9 13 15 0 2 8 1 14 0 -3 -1 12 6 3 6 -4 4 0 2 21 2 3 6 11 8 6 7 0 -1 8 3 1 11 8 0 8 -2 31 24 -4 5 12 12 4 5 7 3 0 -2 4 0 2 5 4 0 8 0 2 6 1 8 15 6 -1 2 2 6 -2 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 4 8 5 2 6 5 24 4 1 0 6 4 3 9 26 6 1 1 10 2 1 3 51 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 3 12 6 -2 7 8 1 0 5 16 5 2 3 5 -5 9 0 2 6 0 13 4 3 9 -1 12 6 3 -2 -1 0 3 1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 3 10 0 3 8 9 4 28 3 8 5 2 6 6 9 5 2 8 -1 5 3 3 -3 1 2 4 2 3 -1 4 10 1 11 15 0 -5 9 6 3 2 -2</t>
-  </si>
-  <si>
-    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 19 15 16 9 3 15 14 12 12 8 5 9 6 10 7 -7 14 6 11 10 6 8 14 10 22 9 2 11 4 11 6 4 2 15 13 4 7 5 14 22 8 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 6 12 20 12 8 12 5 41 11 21 6 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 6 10 31 12 7 5 11 9 14 2 5 9 5 6 13 11 0 22 5 21 7 7 -5 10 12 21 6 4 5 7 -3 17 4 21 5 2 3 8 14 2 20 15 14 7 1 4 4 6 8 11 6 44 2 9 3 31 5 5 6 12 35 22 5 8 9 8 8 12 4 7 18 20 18 9 12 4 6 11 23 3 10 12 3 28 11 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 7 2 15 8 5 3 9 12 4 17 15 11 11 27 8 22 22 10 7 6 7 55 6 3 20 4 16 27 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 36 16 5 7 3 2 37 7 19 2 10 13 16 4 10 4 7 35 3 16 16 4 13 21 14 13 4 16 1 11 21 2 11 10 2 4 19 6 14 20 9 3 4 7 14 10 1 4 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 14 9 7 7 26 1 6 12 7 9 4 17 4 7 14 5 21 4 5 6 28 23</t>
-  </si>
-  <si>
-    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 0 2 3 0 2 1 1 9 4 5 3 1 12 4 6 10 5 4 2 0 0 6 2 23 6 -3 7 5 3 9 3 4 2 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 6 3 25 2 7 12 2 -7 7 5 1 13 4 1 12 -4 13 5 2 3 6 7 1 -1 4 28 4 15 20 8 7 3 5 4 -6 5 3 15 6 -2 0 1 2 -1 -1 33 -2 3 0 13 -2 3 1 -3 1 1 0 5 -2 16 8 4 4 8 1 0 0 1 3 2 12 3 18 -9 4 10 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 10 4 13 1 2 3 0 1 14 2 10 2 4 4 0 3 3 14 5 6 7 9 8 8 0 3 2 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 3 2 4 12 -1 4 2 1 11 5 10 8 -2 0 1 -2 1 -3 3 3 2 4 3 29 20 3 33 5 12 10 9 -1 5 7 1 2 5 0 3 3 0 1 2 13 -4 9 5 2 15 1 1 6 -4 0 19 3 9 2 11 -2 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 2 -2 3 4 8 2 0 0 2 2 1 4 -5 4</t>
-  </si>
-  <si>
-    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 16 11 20 16 14 7 6 9 12 6 3 3 12 15 6 6 6 4 4 12 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 19 7 5 8 9 0 22 10 16 11 9 4 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 2 9 7 4 6 28 9 5 4 9 11 1 9 35 6 10 10 11 7 14 9 9 43 0 11 9 14 5 5 2 12 7 11 4 11 10 9 7 13 10 9 13 15 9 4 5 3 8 14 15 3 17 11 2 13 13 1 17 20 7 4 12 49 6 22 15 9 18 2 3 10 12 23 5 11 9 5 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 10 16 11 -2 8 5 5 9 6 6 19 6 -6 9 -2 6 4 5 10 7 9 7 3 7 8 22 6 6 10 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 9 6 23 22 0 6 32 2 8 31 10 16 2 7 12 6 1 19 11 6 13 27 11 4 1 1 11 31 11 21 8 30 5 5 7 14 1 8 9 5 2 4 9 11 29 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 0 11 17 10 73 14 7 4 15 1 11 15 37 3 8 7 8 5 8 12 3 6 12 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 8 -4 18 18 5 23 9 18 0 3 8 7 8 14 13 9 7 10 17 9 24 11 -3 7 6 3 7</t>
+    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 3 3 3 -3 -2 7 6 3 3 4 1 2 4 2 5 7 2 2 6 4 34 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 2 2 2 1 -1 -3 9 13 15 0 2 8 1 14 0 -3 -1 12 6 3 6 -4 4 0 2 21 2 3 6 11 8 6 7 0 -1 8 3 1 11 8 0 8 -2 31 24 -4 5 12 12 4 5 7 3 0 -2 4 0 2 5 4 0 8 0 2 6 1 8 15 6 -1 2 2 6 -2 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 4 8 5 2 6 5 24 4 1 0 6 4 3 9 26 6 1 1 10 2 1 3 51 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 3 12 6 -2 7 8 1 0 5 16 5 2 3 5 -5 9 0 2 6 0 13 4 3 9 -1 12 6 3 -2 -1 0 3 1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 3 10 0 3 8 9 4 28 3 8 5 2 6 6 9 5 2 8 -1 5 3 3 -3 1 2 4 2 3 -1 4 10 1 11 15 0 -5 9 6 3 2 -2 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1</t>
+  </si>
+  <si>
+    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 19 15 16 9 3 15 14 12 12 8 5 9 6 10 7 -7 14 6 11 10 6 8 14 10 22 9 2 11 4 11 6 4 2 15 13 4 7 5 14 22 8 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 6 12 20 12 8 12 5 41 11 21 6 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 6 10 31 12 7 5 11 9 14 2 5 9 5 6 13 11 0 22 5 21 7 7 -5 10 12 21 6 4 5 7 -3 17 4 21 5 2 3 8 14 2 20 15 14 7 1 4 4 6 8 11 6 44 2 9 3 31 5 5 6 12 35 22 5 8 9 8 8 12 4 7 18 20 18 9 12 4 6 11 23 3 10 12 3 28 11 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 7 2 15 8 5 3 9 12 4 17 15 11 11 27 8 22 22 10 7 6 7 55 6 3 20 4 16 27 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 36 16 5 7 3 2 37 7 19 2 10 13 16 4 10 4 7 35 3 16 16 4 13 21 14 13 4 16 1 11 21 2 11 10 2 4 19 6 14 20 9 3 4 7 14 10 1 4 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 14 9 7 7 26 1 6 12 7 9 4 17 4 7 14 5 21 4 5 6 28 23 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6</t>
+  </si>
+  <si>
+    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 0 2 3 0 2 1 1 9 4 5 3 1 12 4 6 10 5 4 2 0 0 6 2 23 6 -3 7 5 3 9 3 4 2 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 6 3 25 2 7 12 2 -7 7 5 1 13 4 1 12 -4 13 5 2 3 6 7 1 -1 4 28 4 15 20 8 7 3 5 4 -6 5 3 15 6 -2 0 1 2 -1 -1 33 -2 3 0 13 -2 3 1 -3 1 1 0 5 -2 16 8 4 4 8 1 0 0 1 3 2 12 3 18 -9 4 10 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 10 4 13 1 2 3 0 1 14 2 10 2 4 4 0 3 3 14 5 6 7 9 8 8 0 3 2 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 3 2 4 12 -1 4 2 1 11 5 10 8 -2 0 1 -2 1 -3 3 3 2 4 3 29 20 3 33 5 12 10 9 -1 5 7 1 2 5 0 3 3 0 1 2 13 -4 9 5 2 15 1 1 6 -4 0 19 3 9 2 11 -2 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 2 -2 3 4 8 2 0 0 2 2 1 4 -5 4 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2</t>
+  </si>
+  <si>
+    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 16 11 20 16 14 7 6 9 12 6 3 3 12 15 6 6 6 4 4 12 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 19 7 5 8 9 0 22 10 16 11 9 4 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 2 9 7 4 6 28 9 5 4 9 11 1 9 35 6 10 10 11 7 14 9 9 43 0 11 9 14 5 5 2 12 7 11 4 11 10 9 7 13 10 9 13 15 9 4 5 3 8 14 15 3 17 11 2 13 13 1 17 20 7 4 12 49 6 22 15 9 18 2 3 10 12 23 5 11 9 5 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 10 16 11 -2 8 5 5 9 6 6 19 6 -6 9 -2 6 4 5 10 7 9 7 3 7 8 22 6 6 10 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 9 6 23 22 0 6 32 2 8 31 10 16 2 7 12 6 1 19 11 6 13 27 11 4 1 1 11 31 11 21 8 30 5 5 7 14 1 8 9 5 2 4 9 11 29 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 0 11 17 10 73 14 7 4 15 1 11 15 37 3 8 7 8 5 8 12 3 6 12 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 8 -4 18 18 5 23 9 18 0 3 8 7 8 14 13 9 7 10 17 9 24 11 -3 7 6 3 7 12 7</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>26 16 15 12 35 13 24 22 11 20 21 25 21 19 13 17 17 22 10 23 16 10 14 13 15 25 27 9 23 19 38 13 24 18 26 31 21 0 19 17 24 16 16 31 33 0 28 12 17 17 20 17 21 31 18 7 33 18 29 33 33 19 14 15 18 14</t>
   </si>
   <si>
-    <t>31 -1 39 34 20 25 24 25 18 18 30 29 22 58 20 28 60 20 40 34 15 13 20 38 28 25 25 27 35 31 29 20 53 49 27 5 0 15 29 25 26 75 23 19 26 0 20 0 30 18 19 18 45 33 28 23 22 12 12 27 20 17 17</t>
-  </si>
-  <si>
-    <t>53 39 39 41 45 44 72 46 42 51 57 71 59 44 52 58 36 46 40 53 54 60 12 61 53 65 46 57 68 52 37 54 46 39 62 51 57 54 34 67 54 47 58 29 42 53 23 29 47 45 55 46 36 42 41 54 37 60 44 47 47 48 45 32 35 53 40 55 19 41 48 59 41 48 41 37 55 48 43</t>
-  </si>
-  <si>
-    <t>0 0 1 0 10 0 0 0 0 24 40 8 2 0 0 0 0 0 15 6 0 0 0 23 -8 0 0 0 16 0 0 0 0 0 0 5 0 0 0 12 0 0 14 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 6 30 30 0 0 0 0 2 0 8 0 -4 8 14 0 0 8 0 7 12 0</t>
-  </si>
-  <si>
-    <t>16 10 2 23 19 0 0 7 0 11 0 38 -1 0 0 24 0 19 7 0 15 0 0 0 0 11 0 10 0 18 0 4 0 0 4 22 0 0 0 0 0 0 0 15 0 0 7 7 0 7 6 0 12 0 7 0 0 0 0 84 0 0 0 0 0 8 0 0 0 1 0 0 0 20 0 0 0 13 6 33 0 0 5 0 9 6 12 -1 7 0 6 14 16 0 9 0 0 0 0 0 0 0 26 0 0 11 10 1 18</t>
+    <t>31 -1 39 34 20 25 24 25 18 18 30 29 22 58 20 28 60 20 40 34 15 13 20 38 28 25 25 27 35 31 29 20 53 49 27 5 0 15 29 25 26 75 23 19 26 0 20 0 30 18 19 18 45 33 28 23 22 12 12 27 20 17 17 27</t>
+  </si>
+  <si>
+    <t>53 39 39 41 45 44 72 46 42 51 57 71 59 44 52 58 36 46 40 53 54 60 12 61 53 65 46 57 68 52 37 54 46 39 62 51 57 54 34 67 54 47 58 29 42 53 23 29 47 45 55 46 36 42 41 54 37 60 44 47 47 48 45 32 35 53 40 55 19 41 48 59 41 48 41 37 55 48 43 49 33 34 59</t>
+  </si>
+  <si>
+    <t>0 0 1 0 10 0 0 0 0 24 40 8 2 0 0 0 0 0 15 6 0 0 0 23 -8 0 0 0 16 0 0 0 0 0 0 5 0 0 0 12 0 0 14 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 6 30 30 0 0 0 0 2 0 8 0 -4 8 14 0 0 8 0 7 12 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>16 10 2 23 19 0 0 7 0 11 0 38 -1 0 0 24 0 19 7 0 15 0 0 0 0 11 0 10 0 18 0 4 0 0 4 22 0 0 0 0 0 0 0 15 0 0 7 7 0 7 6 0 12 0 7 0 0 0 0 84 0 0 0 0 0 8 0 0 0 1 0 0 0 20 0 0 0 13 6 33 0 0 5 0 9 6 12 -1 7 0 6 14 16 0 9 0 0 0 0 0 0 0 26 0 0 11 10 1 18 8 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D2">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="M2">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="N2">
         <v>23</v>
       </c>
       <c r="O2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2">
         <v>14</v>
       </c>
       <c r="Q2">
-        <v>916</v>
+        <v>976</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H3">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J3">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>403</v>
       </c>
       <c r="N3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,49 +943,49 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="D2">
         <v>16</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N2">
         <v>35</v>
       </c>
       <c r="O2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q2">
-        <v>939</v>
+        <v>988</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,13 +996,13 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3">
         <v>180</v>
@@ -1011,7 +1011,7 @@
         <v>78</v>
       </c>
       <c r="H3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I3">
         <v>108</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1239,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2">
         <v>13</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1351,10 +1351,10 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Bills/Team Data.xlsx
+++ b/Base/Teams/Bills/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 3 3 3 -3 -2 7 6 3 3 4 1 2 4 2 5 7 2 2 6 4 34 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 2 2 2 1 -1 -3 9 13 15 0 2 8 1 14 0 -3 -1 12 6 3 6 -4 4 0 2 21 2 3 6 11 8 6 7 0 -1 8 3 1 11 8 0 8 -2 31 24 -4 5 12 12 4 5 7 3 0 -2 4 0 2 5 4 0 8 0 2 6 1 8 15 6 -1 2 2 6 -2 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 4 8 5 2 6 5 24 4 1 0 6 4 3 9 26 6 1 1 10 2 1 3 51 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 3 12 6 -2 7 8 1 0 5 16 5 2 3 5 -5 9 0 2 6 0 13 4 3 9 -1 12 6 3 -2 -1 0 3 1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 3 10 0 3 8 9 4 28 3 8 5 2 6 6 9 5 2 8 -1 5 3 3 -3 1 2 4 2 3 -1 4 10 1 11 15 0 -5 9 6 3 2 -2 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1</t>
-  </si>
-  <si>
-    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 19 15 16 9 3 15 14 12 12 8 5 9 6 10 7 -7 14 6 11 10 6 8 14 10 22 9 2 11 4 11 6 4 2 15 13 4 7 5 14 22 8 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 6 12 20 12 8 12 5 41 11 21 6 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 6 10 31 12 7 5 11 9 14 2 5 9 5 6 13 11 0 22 5 21 7 7 -5 10 12 21 6 4 5 7 -3 17 4 21 5 2 3 8 14 2 20 15 14 7 1 4 4 6 8 11 6 44 2 9 3 31 5 5 6 12 35 22 5 8 9 8 8 12 4 7 18 20 18 9 12 4 6 11 23 3 10 12 3 28 11 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 7 2 15 8 5 3 9 12 4 17 15 11 11 27 8 22 22 10 7 6 7 55 6 3 20 4 16 27 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 36 16 5 7 3 2 37 7 19 2 10 13 16 4 10 4 7 35 3 16 16 4 13 21 14 13 4 16 1 11 21 2 11 10 2 4 19 6 14 20 9 3 4 7 14 10 1 4 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 14 9 7 7 26 1 6 12 7 9 4 17 4 7 14 5 21 4 5 6 28 23 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6</t>
-  </si>
-  <si>
-    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 0 2 3 0 2 1 1 9 4 5 3 1 12 4 6 10 5 4 2 0 0 6 2 23 6 -3 7 5 3 9 3 4 2 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 6 3 25 2 7 12 2 -7 7 5 1 13 4 1 12 -4 13 5 2 3 6 7 1 -1 4 28 4 15 20 8 7 3 5 4 -6 5 3 15 6 -2 0 1 2 -1 -1 33 -2 3 0 13 -2 3 1 -3 1 1 0 5 -2 16 8 4 4 8 1 0 0 1 3 2 12 3 18 -9 4 10 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 10 4 13 1 2 3 0 1 14 2 10 2 4 4 0 3 3 14 5 6 7 9 8 8 0 3 2 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 3 2 4 12 -1 4 2 1 11 5 10 8 -2 0 1 -2 1 -3 3 3 2 4 3 29 20 3 33 5 12 10 9 -1 5 7 1 2 5 0 3 3 0 1 2 13 -4 9 5 2 15 1 1 6 -4 0 19 3 9 2 11 -2 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 2 -2 3 4 8 2 0 0 2 2 1 4 -5 4 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2</t>
-  </si>
-  <si>
-    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 16 11 20 16 14 7 6 9 12 6 3 3 12 15 6 6 6 4 4 12 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 19 7 5 8 9 0 22 10 16 11 9 4 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 2 9 7 4 6 28 9 5 4 9 11 1 9 35 6 10 10 11 7 14 9 9 43 0 11 9 14 5 5 2 12 7 11 4 11 10 9 7 13 10 9 13 15 9 4 5 3 8 14 15 3 17 11 2 13 13 1 17 20 7 4 12 49 6 22 15 9 18 2 3 10 12 23 5 11 9 5 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 10 16 11 -2 8 5 5 9 6 6 19 6 -6 9 -2 6 4 5 10 7 9 7 3 7 8 22 6 6 10 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 9 6 23 22 0 6 32 2 8 31 10 16 2 7 12 6 1 19 11 6 13 27 11 4 1 1 11 31 11 21 8 30 5 5 7 14 1 8 9 5 2 4 9 11 29 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 0 11 17 10 73 14 7 4 15 1 11 15 37 3 8 7 8 5 8 12 3 6 12 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 8 -4 18 18 5 23 9 18 0 3 8 7 8 14 13 9 7 10 17 9 24 11 -3 7 6 3 7 12 7</t>
+    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 3 3 3 -3 -2 7 6 3 3 4 1 2 4 2 5 7 2 2 6 4 34 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 2 2 2 1 -1 -3 9 13 15 0 2 8 1 14 0 -3 -1 12 6 3 6 -4 4 0 2 21 2 3 6 11 8 6 7 0 -1 8 3 1 11 8 0 8 -2 31 24 -4 5 12 12 4 5 7 3 0 -2 4 0 2 5 4 0 8 0 2 6 1 8 15 6 -1 2 2 6 -2 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 4 8 5 2 6 5 24 4 1 0 6 4 3 9 26 6 1 1 10 2 1 3 51 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 3 12 6 -2 7 8 1 0 5 16 5 2 3 5 -5 9 0 2 6 0 13 4 3 9 -1 12 6 3 -2 -1 0 3 1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 3 10 0 3 8 9 4 28 3 8 5 2 6 6 9 5 2 8 -1 5 3 3 -3 1 2 4 2 3 -1 4 10 1 11 15 0 -5 9 6 3 2 -2 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3</t>
+  </si>
+  <si>
+    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 19 15 16 9 3 15 14 12 12 8 5 9 6 10 7 -7 14 6 11 10 6 8 14 10 22 9 2 11 4 11 6 4 2 15 13 4 7 5 14 22 8 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 6 12 20 12 8 12 5 41 11 21 6 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 6 10 31 12 7 5 11 9 14 2 5 9 5 6 13 11 0 22 5 21 7 7 -5 10 12 21 6 4 5 7 -3 17 4 21 5 2 3 8 14 2 20 15 14 7 1 4 4 6 8 11 6 44 2 9 3 31 5 5 6 12 35 22 5 8 9 8 8 12 4 7 18 20 18 9 12 4 6 11 23 3 10 12 3 28 11 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 7 2 15 8 5 3 9 12 4 17 15 11 11 27 8 22 22 10 7 6 7 55 6 3 20 4 16 27 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 36 16 5 7 3 2 37 7 19 2 10 13 16 4 10 4 7 35 3 16 16 4 13 21 14 13 4 16 1 11 21 2 11 10 2 4 19 6 14 20 9 3 4 7 14 10 1 4 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 14 9 7 7 26 1 6 12 7 9 4 17 4 7 14 5 21 4 5 6 28 23 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3</t>
+  </si>
+  <si>
+    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 0 2 3 0 2 1 1 9 4 5 3 1 12 4 6 10 5 4 2 0 0 6 2 23 6 -3 7 5 3 9 3 4 2 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 6 3 25 2 7 12 2 -7 7 5 1 13 4 1 12 -4 13 5 2 3 6 7 1 -1 4 28 4 15 20 8 7 3 5 4 -6 5 3 15 6 -2 0 1 2 -1 -1 33 -2 3 0 13 -2 3 1 -3 1 1 0 5 -2 16 8 4 4 8 1 0 0 1 3 2 12 3 18 -9 4 10 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 10 4 13 1 2 3 0 1 14 2 10 2 4 4 0 3 3 14 5 6 7 9 8 8 0 3 2 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 3 2 4 12 -1 4 2 1 11 5 10 8 -2 0 1 -2 1 -3 3 3 2 4 3 29 20 3 33 5 12 10 9 -1 5 7 1 2 5 0 3 3 0 1 2 13 -4 9 5 2 15 1 1 6 -4 0 19 3 9 2 11 -2 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 2 -2 3 4 8 2 0 0 2 2 1 4 -5 4 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1</t>
+  </si>
+  <si>
+    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 16 11 20 16 14 7 6 9 12 6 3 3 12 15 6 6 6 4 4 12 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 19 7 5 8 9 0 22 10 16 11 9 4 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 2 9 7 4 6 28 9 5 4 9 11 1 9 35 6 10 10 11 7 14 9 9 43 0 11 9 14 5 5 2 12 7 11 4 11 10 9 7 13 10 9 13 15 9 4 5 3 8 14 15 3 17 11 2 13 13 1 17 20 7 4 12 49 6 22 15 9 18 2 3 10 12 23 5 11 9 5 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 10 16 11 -2 8 5 5 9 6 6 19 6 -6 9 -2 6 4 5 10 7 9 7 3 7 8 22 6 6 10 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 9 6 23 22 0 6 32 2 8 31 10 16 2 7 12 6 1 19 11 6 13 27 11 4 1 1 11 31 11 21 8 30 5 5 7 14 1 8 9 5 2 4 9 11 29 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 0 11 17 10 73 14 7 4 15 1 11 15 37 3 8 7 8 5 8 12 3 6 12 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 8 -4 18 18 5 23 9 18 0 3 8 7 8 14 13 9 7 10 17 9 24 11 -3 7 6 3 7 12 7 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>63 67 55 61 62 59 63 67 63 63 60 63 61 56 57 67 62 65 54 57 62 57 67 59 70 62 57 64 67 59 61 43 54 63 60 70 65 63 56 63 62 58 66 68 70 63 70 54 61 58 64 63 63 61 62 40 63 66 60 66 63 64 62 63 62 65</t>
-  </si>
-  <si>
-    <t>26 16 15 12 35 13 24 22 11 20 21 25 21 19 13 17 17 22 10 23 16 10 14 13 15 25 27 9 23 19 38 13 24 18 26 31 21 0 19 17 24 16 16 31 33 0 28 12 17 17 20 17 21 31 18 7 33 18 29 33 33 19 14 15 18 14</t>
-  </si>
-  <si>
-    <t>31 -1 39 34 20 25 24 25 18 18 30 29 22 58 20 28 60 20 40 34 15 13 20 38 28 25 25 27 35 31 29 20 53 49 27 5 0 15 29 25 26 75 23 19 26 0 20 0 30 18 19 18 45 33 28 23 22 12 12 27 20 17 17 27</t>
-  </si>
-  <si>
-    <t>53 39 39 41 45 44 72 46 42 51 57 71 59 44 52 58 36 46 40 53 54 60 12 61 53 65 46 57 68 52 37 54 46 39 62 51 57 54 34 67 54 47 58 29 42 53 23 29 47 45 55 46 36 42 41 54 37 60 44 47 47 48 45 32 35 53 40 55 19 41 48 59 41 48 41 37 55 48 43 49 33 34 59</t>
-  </si>
-  <si>
-    <t>0 0 1 0 10 0 0 0 0 24 40 8 2 0 0 0 0 0 15 6 0 0 0 23 -8 0 0 0 16 0 0 0 0 0 0 5 0 0 0 12 0 0 14 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 6 30 30 0 0 0 0 2 0 8 0 -4 8 14 0 0 8 0 7 12 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>16 10 2 23 19 0 0 7 0 11 0 38 -1 0 0 24 0 19 7 0 15 0 0 0 0 11 0 10 0 18 0 4 0 0 4 22 0 0 0 0 0 0 0 15 0 0 7 7 0 7 6 0 12 0 7 0 0 0 0 84 0 0 0 0 0 8 0 0 0 1 0 0 0 20 0 0 0 13 6 33 0 0 5 0 9 6 12 -1 7 0 6 14 16 0 9 0 0 0 0 0 0 0 26 0 0 11 10 1 18 8 0 0 0 0 0</t>
+    <t>63 67 55 61 62 59 63 67 63 63 60 63 61 56 57 67 62 65 54 57 62 57 67 59 70 62 57 64 67 59 61 43 54 63 60 70 65 63 56 63 62 58 66 68 70 63 70 54 61 58 64 63 63 61 62 40 63 66 60 66 63 64 62 63 62 65 56 61 56</t>
+  </si>
+  <si>
+    <t>26 16 15 12 35 13 24 22 11 20 21 25 21 19 13 17 17 22 10 23 16 10 14 13 15 25 27 9 23 19 38 13 24 18 26 31 21 0 19 17 24 16 16 31 33 0 28 12 17 17 20 17 21 31 18 7 33 18 29 33 33 19 14 15 18 14 15 33 7</t>
+  </si>
+  <si>
+    <t>31 -1 39 34 20 25 24 25 18 18 30 29 22 58 20 28 60 20 40 34 15 13 20 38 28 25 25 27 35 31 29 20 53 49 27 5 0 15 29 25 26 75 23 19 26 0 20 0 30 18 19 18 45 33 28 23 22 12 12 27 20 17 17 27 29</t>
+  </si>
+  <si>
+    <t>53 39 39 41 45 44 72 46 42 51 57 71 59 44 52 58 36 46 40 53 54 60 12 61 53 65 46 57 68 52 37 54 46 39 62 51 57 54 34 67 54 47 58 29 42 53 23 29 47 45 55 46 36 42 41 54 37 60 44 47 47 48 45 32 35 53 40 55 19 41 48 59 41 48 41 37 55 48 43 49 33 34 59 44 39 34 61 45 63</t>
+  </si>
+  <si>
+    <t>0 0 1 0 10 0 0 0 0 24 40 8 2 0 0 0 0 0 15 6 0 0 0 23 -8 0 0 0 16 0 0 0 0 0 0 5 0 0 0 12 0 0 14 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 6 30 30 0 0 0 0 2 0 8 0 -4 8 14 0 0 8 0 7 12 0 0 0 0 0 10 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>16 10 2 23 19 0 0 7 0 11 0 38 -1 0 0 24 0 19 7 0 15 0 0 0 0 11 0 10 0 18 0 4 0 0 4 22 0 0 0 0 0 0 0 15 0 0 7 7 0 7 6 0 12 0 7 0 0 0 0 84 0 0 0 0 0 8 0 0 0 1 0 0 0 20 0 0 0 13 6 33 0 0 5 0 9 6 12 -1 7 0 6 14 16 0 9 0 0 0 0 0 0 0 26 0 0 11 10 1 18 8 0 0 0 0 0 4 0 0 0 5</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -689,7 +689,7 @@
         <v>18</v>
       </c>
       <c r="J2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>375</v>
       </c>
       <c r="N2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q2">
         <v>976</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="G3">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I3">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J3">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>588</v>
+        <v>642</v>
       </c>
       <c r="M3">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="N3">
         <v>31</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>952</v>
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>19</v>
       </c>
       <c r="F2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -964,7 +964,7 @@
         <v>14</v>
       </c>
       <c r="J2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,10 +976,10 @@
         <v>318</v>
       </c>
       <c r="N2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2">
         <v>23</v>
@@ -996,37 +996,37 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J3">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>536</v>
+        <v>584</v>
       </c>
       <c r="M3">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="N3">
         <v>30</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>923</v>
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1239,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L2">
         <v>13</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>14</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Bills/Team Data.xlsx
+++ b/Base/Teams/Bills/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 3 3 3 -3 -2 7 6 3 3 4 1 2 4 2 5 7 2 2 6 4 34 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 2 2 2 1 -1 -3 9 13 15 0 2 8 1 14 0 -3 -1 12 6 3 6 -4 4 0 2 21 2 3 6 11 8 6 7 0 -1 8 3 1 11 8 0 8 -2 31 24 -4 5 12 12 4 5 7 3 0 -2 4 0 2 5 4 0 8 0 2 6 1 8 15 6 -1 2 2 6 -2 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 4 8 5 2 6 5 24 4 1 0 6 4 3 9 26 6 1 1 10 2 1 3 51 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 3 12 6 -2 7 8 1 0 5 16 5 2 3 5 -5 9 0 2 6 0 13 4 3 9 -1 12 6 3 -2 -1 0 3 1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 3 10 0 3 8 9 4 28 3 8 5 2 6 6 9 5 2 8 -1 5 3 3 -3 1 2 4 2 3 -1 4 10 1 11 15 0 -5 9 6 3 2 -2 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3</t>
-  </si>
-  <si>
-    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 19 15 16 9 3 15 14 12 12 8 5 9 6 10 7 -7 14 6 11 10 6 8 14 10 22 9 2 11 4 11 6 4 2 15 13 4 7 5 14 22 8 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 6 12 20 12 8 12 5 41 11 21 6 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 6 10 31 12 7 5 11 9 14 2 5 9 5 6 13 11 0 22 5 21 7 7 -5 10 12 21 6 4 5 7 -3 17 4 21 5 2 3 8 14 2 20 15 14 7 1 4 4 6 8 11 6 44 2 9 3 31 5 5 6 12 35 22 5 8 9 8 8 12 4 7 18 20 18 9 12 4 6 11 23 3 10 12 3 28 11 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 7 2 15 8 5 3 9 12 4 17 15 11 11 27 8 22 22 10 7 6 7 55 6 3 20 4 16 27 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 36 16 5 7 3 2 37 7 19 2 10 13 16 4 10 4 7 35 3 16 16 4 13 21 14 13 4 16 1 11 21 2 11 10 2 4 19 6 14 20 9 3 4 7 14 10 1 4 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 14 9 7 7 26 1 6 12 7 9 4 17 4 7 14 5 21 4 5 6 28 23 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3</t>
-  </si>
-  <si>
-    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 0 2 3 0 2 1 1 9 4 5 3 1 12 4 6 10 5 4 2 0 0 6 2 23 6 -3 7 5 3 9 3 4 2 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 6 3 25 2 7 12 2 -7 7 5 1 13 4 1 12 -4 13 5 2 3 6 7 1 -1 4 28 4 15 20 8 7 3 5 4 -6 5 3 15 6 -2 0 1 2 -1 -1 33 -2 3 0 13 -2 3 1 -3 1 1 0 5 -2 16 8 4 4 8 1 0 0 1 3 2 12 3 18 -9 4 10 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 10 4 13 1 2 3 0 1 14 2 10 2 4 4 0 3 3 14 5 6 7 9 8 8 0 3 2 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 3 2 4 12 -1 4 2 1 11 5 10 8 -2 0 1 -2 1 -3 3 3 2 4 3 29 20 3 33 5 12 10 9 -1 5 7 1 2 5 0 3 3 0 1 2 13 -4 9 5 2 15 1 1 6 -4 0 19 3 9 2 11 -2 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 2 -2 3 4 8 2 0 0 2 2 1 4 -5 4 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1</t>
-  </si>
-  <si>
-    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 16 11 20 16 14 7 6 9 12 6 3 3 12 15 6 6 6 4 4 12 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 19 7 5 8 9 0 22 10 16 11 9 4 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 2 9 7 4 6 28 9 5 4 9 11 1 9 35 6 10 10 11 7 14 9 9 43 0 11 9 14 5 5 2 12 7 11 4 11 10 9 7 13 10 9 13 15 9 4 5 3 8 14 15 3 17 11 2 13 13 1 17 20 7 4 12 49 6 22 15 9 18 2 3 10 12 23 5 11 9 5 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 10 16 11 -2 8 5 5 9 6 6 19 6 -6 9 -2 6 4 5 10 7 9 7 3 7 8 22 6 6 10 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 9 6 23 22 0 6 32 2 8 31 10 16 2 7 12 6 1 19 11 6 13 27 11 4 1 1 11 31 11 21 8 30 5 5 7 14 1 8 9 5 2 4 9 11 29 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 0 11 17 10 73 14 7 4 15 1 11 15 37 3 8 7 8 5 8 12 3 6 12 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 8 -4 18 18 5 23 9 18 0 3 8 7 8 14 13 9 7 10 17 9 24 11 -3 7 6 3 7 12 7 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58</t>
+    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 3 3 3 -3 -2 7 6 3 3 4 1 2 4 2 5 7 2 2 6 4 34 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 2 2 2 1 -1 -3 9 13 15 0 2 8 1 14 0 -3 -1 12 6 3 6 -4 4 0 2 21 2 3 6 11 8 6 7 0 -1 8 3 1 11 8 0 8 -2 31 24 -4 5 12 12 4 5 7 3 0 -2 4 0 2 5 4 0 8 0 2 6 1 8 15 6 -1 2 2 6 -2 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 4 8 5 2 6 5 24 4 1 0 6 4 3 9 26 6 1 1 10 2 1 3 51 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 3 12 6 -2 7 8 1 0 5 16 5 2 3 5 -5 9 0 2 6 0 13 4 3 9 -1 12 6 3 -2 -1 0 3 1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 3 10 0 3 8 9 4 28 3 8 5 2 6 6 9 5 2 8 -1 5 3 3 -3 1 2 4 2 3 -1 4 10 1 11 15 0 -5 9 6 3 2 -2 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3 8 2 16 6 3 0 2 2 26 3 4 1 -2 12 3 1 2 4 1 8 7 4 5 2 1</t>
+  </si>
+  <si>
+    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 19 15 16 9 3 15 14 12 12 8 5 9 6 10 7 -7 14 6 11 10 6 8 14 10 22 9 2 11 4 11 6 4 2 15 13 4 7 5 14 22 8 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 6 12 20 12 8 12 5 41 11 21 6 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 6 10 31 12 7 5 11 9 14 2 5 9 5 6 13 11 0 22 5 21 7 7 -5 10 12 21 6 4 5 7 -3 17 4 21 5 2 3 8 14 2 20 15 14 7 1 4 4 6 8 11 6 44 2 9 3 31 5 5 6 12 35 22 5 8 9 8 8 12 4 7 18 20 18 9 12 4 6 11 23 3 10 12 3 28 11 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 7 2 15 8 5 3 9 12 4 17 15 11 11 27 8 22 22 10 7 6 7 55 6 3 20 4 16 27 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 36 16 5 7 3 2 37 7 19 2 10 13 16 4 10 4 7 35 3 16 16 4 13 21 14 13 4 16 1 11 21 2 11 10 2 4 19 6 14 20 9 3 4 7 14 10 1 4 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 14 9 7 7 26 1 6 12 7 9 4 17 4 7 14 5 21 4 5 6 28 23 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3 12 9 15 9 10 12 11 4 10 9 7 11 7 7 7 8 28 20</t>
+  </si>
+  <si>
+    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 0 2 3 0 2 1 1 9 4 5 3 1 12 4 6 10 5 4 2 0 0 6 2 23 6 -3 7 5 3 9 3 4 2 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 6 3 25 2 7 12 2 -7 7 5 1 13 4 1 12 -4 13 5 2 3 6 7 1 -1 4 28 4 15 20 8 7 3 5 4 -6 5 3 15 6 -2 0 1 2 -1 -1 33 -2 3 0 13 -2 3 1 -3 1 1 0 5 -2 16 8 4 4 8 1 0 0 1 3 2 12 3 18 -9 4 10 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 10 4 13 1 2 3 0 1 14 2 10 2 4 4 0 3 3 14 5 6 7 9 8 8 0 3 2 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 3 2 4 12 -1 4 2 1 11 5 10 8 -2 0 1 -2 1 -3 3 3 2 4 3 29 20 3 33 5 12 10 9 -1 5 7 1 2 5 0 3 3 0 1 2 13 -4 9 5 2 15 1 1 6 -4 0 19 3 9 2 11 -2 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 2 -2 3 4 8 2 0 0 2 2 1 4 -5 4 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1 1 11 4 21 3 -2 0 7 8 -4 5 2 2 0 2 30 3 4 1 13 -1 1 7 1 7 8 5 7 5</t>
+  </si>
+  <si>
+    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 16 11 20 16 14 7 6 9 12 6 3 3 12 15 6 6 6 4 4 12 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 19 7 5 8 9 0 22 10 16 11 9 4 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 2 9 7 4 6 28 9 5 4 9 11 1 9 35 6 10 10 11 7 14 9 9 43 0 11 9 14 5 5 2 12 7 11 4 11 10 9 7 13 10 9 13 15 9 4 5 3 8 14 15 3 17 11 2 13 13 1 17 20 7 4 12 49 6 22 15 9 18 2 3 10 12 23 5 11 9 5 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 10 16 11 -2 8 5 5 9 6 6 19 6 -6 9 -2 6 4 5 10 7 9 7 3 7 8 22 6 6 10 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 9 6 23 22 0 6 32 2 8 31 10 16 2 7 12 6 1 19 11 6 13 27 11 4 1 1 11 31 11 21 8 30 5 5 7 14 1 8 9 5 2 4 9 11 29 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 0 11 17 10 73 14 7 4 15 1 11 15 37 3 8 7 8 5 8 12 3 6 12 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 8 -4 18 18 5 23 9 18 0 3 8 7 8 14 13 9 7 10 17 9 24 11 -3 7 6 3 7 12 7 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58 1 9 8 8 9 4 11 13 9 16 4 23 5 6 8 5 8</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>63 67 55 61 62 59 63 67 63 63 60 63 61 56 57 67 62 65 54 57 62 57 67 59 70 62 57 64 67 59 61 43 54 63 60 70 65 63 56 63 62 58 66 68 70 63 70 54 61 58 64 63 63 61 62 40 63 66 60 66 63 64 62 63 62 65 56 61 56</t>
-  </si>
-  <si>
-    <t>26 16 15 12 35 13 24 22 11 20 21 25 21 19 13 17 17 22 10 23 16 10 14 13 15 25 27 9 23 19 38 13 24 18 26 31 21 0 19 17 24 16 16 31 33 0 28 12 17 17 20 17 21 31 18 7 33 18 29 33 33 19 14 15 18 14 15 33 7</t>
-  </si>
-  <si>
-    <t>31 -1 39 34 20 25 24 25 18 18 30 29 22 58 20 28 60 20 40 34 15 13 20 38 28 25 25 27 35 31 29 20 53 49 27 5 0 15 29 25 26 75 23 19 26 0 20 0 30 18 19 18 45 33 28 23 22 12 12 27 20 17 17 27 29</t>
-  </si>
-  <si>
-    <t>53 39 39 41 45 44 72 46 42 51 57 71 59 44 52 58 36 46 40 53 54 60 12 61 53 65 46 57 68 52 37 54 46 39 62 51 57 54 34 67 54 47 58 29 42 53 23 29 47 45 55 46 36 42 41 54 37 60 44 47 47 48 45 32 35 53 40 55 19 41 48 59 41 48 41 37 55 48 43 49 33 34 59 44 39 34 61 45 63</t>
-  </si>
-  <si>
-    <t>0 0 1 0 10 0 0 0 0 24 40 8 2 0 0 0 0 0 15 6 0 0 0 23 -8 0 0 0 16 0 0 0 0 0 0 5 0 0 0 12 0 0 14 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 6 30 30 0 0 0 0 2 0 8 0 -4 8 14 0 0 8 0 7 12 0 0 0 0 0 10 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>16 10 2 23 19 0 0 7 0 11 0 38 -1 0 0 24 0 19 7 0 15 0 0 0 0 11 0 10 0 18 0 4 0 0 4 22 0 0 0 0 0 0 0 15 0 0 7 7 0 7 6 0 12 0 7 0 0 0 0 84 0 0 0 0 0 8 0 0 0 1 0 0 0 20 0 0 0 13 6 33 0 0 5 0 9 6 12 -1 7 0 6 14 16 0 9 0 0 0 0 0 0 0 26 0 0 11 10 1 18 8 0 0 0 0 0 4 0 0 0 5</t>
+    <t>63 67 55 61 62 59 63 67 63 63 60 63 61 56 57 67 62 65 54 57 62 57 67 59 70 62 57 64 67 59 61 43 54 63 60 70 65 63 56 63 62 58 66 68 70 63 70 54 61 58 64 63 63 61 62 40 63 66 60 66 63 64 62 63 62 65 56 61 56 58 57 58 54</t>
+  </si>
+  <si>
+    <t>26 16 15 12 35 13 24 22 11 20 21 25 21 19 13 17 17 22 10 23 16 10 14 13 15 25 27 9 23 19 38 13 24 18 26 31 21 0 19 17 24 16 16 31 33 0 28 12 17 17 20 17 21 31 18 7 33 18 29 33 33 19 14 15 18 14 15 33 7 21 10 18 21</t>
+  </si>
+  <si>
+    <t>31 -1 39 34 20 25 24 25 18 18 30 29 22 58 20 28 60 20 40 34 15 13 20 38 28 25 25 27 35 31 29 20 53 49 27 5 0 15 29 25 26 75 23 19 26 0 20 0 30 18 19 18 45 33 28 23 22 12 12 27 20 17 17 27 29 13 8 28</t>
+  </si>
+  <si>
+    <t>53 39 39 41 45 44 72 46 42 51 57 71 59 44 52 58 36 46 40 53 54 60 12 61 53 65 46 57 68 52 37 54 46 39 62 51 57 54 34 67 54 47 58 29 42 53 23 29 47 45 55 46 36 42 41 54 37 60 44 47 47 48 45 32 35 53 40 55 19 41 48 59 41 48 41 37 55 48 43 49 33 34 59 44 39 34 61 45 63 40 43 28 37 40</t>
+  </si>
+  <si>
+    <t>0 0 1 0 10 0 0 0 0 24 40 8 2 0 0 0 0 0 15 6 0 0 0 23 -8 0 0 0 16 0 0 0 0 0 0 5 0 0 0 12 0 0 14 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 6 30 30 0 0 0 0 2 0 8 0 -4 8 14 0 0 8 0 7 12 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 16</t>
+  </si>
+  <si>
+    <t>16 10 2 23 19 0 0 7 0 11 0 38 -1 0 0 24 0 19 7 0 15 0 0 0 0 11 0 10 0 18 0 4 0 0 4 22 0 0 0 0 0 0 0 15 0 0 7 7 0 7 6 0 12 0 7 0 0 0 0 84 0 0 0 0 0 8 0 0 0 1 0 0 0 20 0 0 0 13 6 33 0 0 5 0 9 6 12 -1 7 0 6 14 16 0 9 0 0 0 0 0 0 0 26 0 0 11 10 1 18 8 0 0 0 0 0 4 0 0 0 5 17 14 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="D2">
         <v>22</v>
@@ -677,40 +677,40 @@
         <v>17</v>
       </c>
       <c r="F2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="M2">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="N2">
         <v>26</v>
       </c>
       <c r="O2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q2">
-        <v>976</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F3">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G3">
         <v>75</v>
       </c>
       <c r="H3">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I3">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J3">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>439</v>
       </c>
       <c r="N3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,49 +943,49 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>104</v>
+      </c>
+      <c r="G2">
+        <v>125</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
         <v>17</v>
       </c>
-      <c r="E2">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>102</v>
-      </c>
-      <c r="G2">
-        <v>121</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>14</v>
-      </c>
       <c r="J2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>526</v>
+        <v>564</v>
       </c>
       <c r="M2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="N2">
         <v>37</v>
       </c>
       <c r="O2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2">
-        <v>988</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
       <c r="E3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G3">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J3">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>372</v>
       </c>
       <c r="N3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1239,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>13</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
         <v>19</v>
       </c>
-      <c r="D2">
-        <v>18</v>
-      </c>
       <c r="E2">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1371,7 +1371,7 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Bills/Team Data.xlsx
+++ b/Base/Teams/Bills/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 3 3 3 -3 -2 7 6 3 3 4 1 2 4 2 5 7 2 2 6 4 34 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 2 2 2 1 -1 -3 9 13 15 0 2 8 1 14 0 -3 -1 12 6 3 6 -4 4 0 2 21 2 3 6 11 8 6 7 0 -1 8 3 1 11 8 0 8 -2 31 24 -4 5 12 12 4 5 7 3 0 -2 4 0 2 5 4 0 8 0 2 6 1 8 15 6 -1 2 2 6 -2 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 4 8 5 2 6 5 24 4 1 0 6 4 3 9 26 6 1 1 10 2 1 3 51 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 3 12 6 -2 7 8 1 0 5 16 5 2 3 5 -5 9 0 2 6 0 13 4 3 9 -1 12 6 3 -2 -1 0 3 1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 3 10 0 3 8 9 4 28 3 8 5 2 6 6 9 5 2 8 -1 5 3 3 -3 1 2 4 2 3 -1 4 10 1 11 15 0 -5 9 6 3 2 -2 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3 8 2 16 6 3 0 2 2 26 3 4 1 -2 12 3 1 2 4 1 8 7 4 5 2 1</t>
-  </si>
-  <si>
-    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 19 15 16 9 3 15 14 12 12 8 5 9 6 10 7 -7 14 6 11 10 6 8 14 10 22 9 2 11 4 11 6 4 2 15 13 4 7 5 14 22 8 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 6 12 20 12 8 12 5 41 11 21 6 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 6 10 31 12 7 5 11 9 14 2 5 9 5 6 13 11 0 22 5 21 7 7 -5 10 12 21 6 4 5 7 -3 17 4 21 5 2 3 8 14 2 20 15 14 7 1 4 4 6 8 11 6 44 2 9 3 31 5 5 6 12 35 22 5 8 9 8 8 12 4 7 18 20 18 9 12 4 6 11 23 3 10 12 3 28 11 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 7 2 15 8 5 3 9 12 4 17 15 11 11 27 8 22 22 10 7 6 7 55 6 3 20 4 16 27 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 36 16 5 7 3 2 37 7 19 2 10 13 16 4 10 4 7 35 3 16 16 4 13 21 14 13 4 16 1 11 21 2 11 10 2 4 19 6 14 20 9 3 4 7 14 10 1 4 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 14 9 7 7 26 1 6 12 7 9 4 17 4 7 14 5 21 4 5 6 28 23 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3 12 9 15 9 10 12 11 4 10 9 7 11 7 7 7 8 28 20</t>
-  </si>
-  <si>
-    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 0 2 3 0 2 1 1 9 4 5 3 1 12 4 6 10 5 4 2 0 0 6 2 23 6 -3 7 5 3 9 3 4 2 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 6 3 25 2 7 12 2 -7 7 5 1 13 4 1 12 -4 13 5 2 3 6 7 1 -1 4 28 4 15 20 8 7 3 5 4 -6 5 3 15 6 -2 0 1 2 -1 -1 33 -2 3 0 13 -2 3 1 -3 1 1 0 5 -2 16 8 4 4 8 1 0 0 1 3 2 12 3 18 -9 4 10 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 10 4 13 1 2 3 0 1 14 2 10 2 4 4 0 3 3 14 5 6 7 9 8 8 0 3 2 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 3 2 4 12 -1 4 2 1 11 5 10 8 -2 0 1 -2 1 -3 3 3 2 4 3 29 20 3 33 5 12 10 9 -1 5 7 1 2 5 0 3 3 0 1 2 13 -4 9 5 2 15 1 1 6 -4 0 19 3 9 2 11 -2 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 2 -2 3 4 8 2 0 0 2 2 1 4 -5 4 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1 1 11 4 21 3 -2 0 7 8 -4 5 2 2 0 2 30 3 4 1 13 -1 1 7 1 7 8 5 7 5</t>
-  </si>
-  <si>
-    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 16 11 20 16 14 7 6 9 12 6 3 3 12 15 6 6 6 4 4 12 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 19 7 5 8 9 0 22 10 16 11 9 4 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 2 9 7 4 6 28 9 5 4 9 11 1 9 35 6 10 10 11 7 14 9 9 43 0 11 9 14 5 5 2 12 7 11 4 11 10 9 7 13 10 9 13 15 9 4 5 3 8 14 15 3 17 11 2 13 13 1 17 20 7 4 12 49 6 22 15 9 18 2 3 10 12 23 5 11 9 5 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 10 16 11 -2 8 5 5 9 6 6 19 6 -6 9 -2 6 4 5 10 7 9 7 3 7 8 22 6 6 10 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 9 6 23 22 0 6 32 2 8 31 10 16 2 7 12 6 1 19 11 6 13 27 11 4 1 1 11 31 11 21 8 30 5 5 7 14 1 8 9 5 2 4 9 11 29 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 0 11 17 10 73 14 7 4 15 1 11 15 37 3 8 7 8 5 8 12 3 6 12 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 8 -4 18 18 5 23 9 18 0 3 8 7 8 14 13 9 7 10 17 9 24 11 -3 7 6 3 7 12 7 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58 1 9 8 8 9 4 11 13 9 16 4 23 5 6 8 5 8</t>
+    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 3 3 3 -3 -2 7 6 3 3 4 1 2 4 2 5 7 2 2 6 4 34 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 2 2 2 1 -1 -3 9 13 15 0 2 8 1 14 0 -3 -1 12 6 3 6 -4 4 0 2 21 2 3 6 11 8 6 7 0 -1 8 3 1 11 8 0 8 -2 31 24 -4 5 12 12 4 5 7 3 0 -2 4 0 2 5 4 0 8 0 2 6 1 8 15 6 -1 2 2 6 -2 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 4 8 5 2 6 5 24 4 1 0 6 4 3 9 26 6 1 1 10 2 1 3 51 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 3 12 6 -2 7 8 1 0 5 16 5 2 3 5 -5 9 0 2 6 0 13 4 3 9 -1 12 6 3 -2 -1 0 3 1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 3 10 0 3 8 9 4 28 3 8 5 2 6 6 9 5 2 8 -1 5 3 3 -3 1 2 4 2 3 -1 4 10 1 11 15 0 -5 9 6 3 2 -2 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3 8 2 16 6 3 0 2 2 26 3 4 1 -2 12 3 1 2 4 1 8 7 4 5 2 1 3 3 5 1 5 3 25 2 6 2 -1 8 3 7 3 2 11 1 2 2 7 2 0 0 5</t>
+  </si>
+  <si>
+    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 19 15 16 9 3 15 14 12 12 8 5 9 6 10 7 -7 14 6 11 10 6 8 14 10 22 9 2 11 4 11 6 4 2 15 13 4 7 5 14 22 8 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 6 12 20 12 8 12 5 41 11 21 6 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 6 10 31 12 7 5 11 9 14 2 5 9 5 6 13 11 0 22 5 21 7 7 -5 10 12 21 6 4 5 7 -3 17 4 21 5 2 3 8 14 2 20 15 14 7 1 4 4 6 8 11 6 44 2 9 3 31 5 5 6 12 35 22 5 8 9 8 8 12 4 7 18 20 18 9 12 4 6 11 23 3 10 12 3 28 11 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 7 2 15 8 5 3 9 12 4 17 15 11 11 27 8 22 22 10 7 6 7 55 6 3 20 4 16 27 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 36 16 5 7 3 2 37 7 19 2 10 13 16 4 10 4 7 35 3 16 16 4 13 21 14 13 4 16 1 11 21 2 11 10 2 4 19 6 14 20 9 3 4 7 14 10 1 4 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 14 9 7 7 26 1 6 12 7 9 4 17 4 7 14 5 21 4 5 6 28 23 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3 12 9 15 9 10 12 11 4 10 9 7 11 7 7 7 8 28 20 11 8 7 13 7 8 12 9 4 13 3 10 1 12 9 11 18 9 11 11 6 5 28 9 17 15 19 2</t>
+  </si>
+  <si>
+    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 0 2 3 0 2 1 1 9 4 5 3 1 12 4 6 10 5 4 2 0 0 6 2 23 6 -3 7 5 3 9 3 4 2 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 6 3 25 2 7 12 2 -7 7 5 1 13 4 1 12 -4 13 5 2 3 6 7 1 -1 4 28 4 15 20 8 7 3 5 4 -6 5 3 15 6 -2 0 1 2 -1 -1 33 -2 3 0 13 -2 3 1 -3 1 1 0 5 -2 16 8 4 4 8 1 0 0 1 3 2 12 3 18 -9 4 10 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 10 4 13 1 2 3 0 1 14 2 10 2 4 4 0 3 3 14 5 6 7 9 8 8 0 3 2 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 3 2 4 12 -1 4 2 1 11 5 10 8 -2 0 1 -2 1 -3 3 3 2 4 3 29 20 3 33 5 12 10 9 -1 5 7 1 2 5 0 3 3 0 1 2 13 -4 9 5 2 15 1 1 6 -4 0 19 3 9 2 11 -2 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 2 -2 3 4 8 2 0 0 2 2 1 4 -5 4 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1 1 11 4 21 3 -2 0 7 8 -4 5 2 2 0 2 30 3 4 1 13 -1 1 7 1 7 8 5 7 5 0 9 5 9 0 0 2 1 16 1 7 31 2 0 2 2 1 3 1 9 6 8 11 3</t>
+  </si>
+  <si>
+    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 16 11 20 16 14 7 6 9 12 6 3 3 12 15 6 6 6 4 4 12 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 19 7 5 8 9 0 22 10 16 11 9 4 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 2 9 7 4 6 28 9 5 4 9 11 1 9 35 6 10 10 11 7 14 9 9 43 0 11 9 14 5 5 2 12 7 11 4 11 10 9 7 13 10 9 13 15 9 4 5 3 8 14 15 3 17 11 2 13 13 1 17 20 7 4 12 49 6 22 15 9 18 2 3 10 12 23 5 11 9 5 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 10 16 11 -2 8 5 5 9 6 6 19 6 -6 9 -2 6 4 5 10 7 9 7 3 7 8 22 6 6 10 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 9 6 23 22 0 6 32 2 8 31 10 16 2 7 12 6 1 19 11 6 13 27 11 4 1 1 11 31 11 21 8 30 5 5 7 14 1 8 9 5 2 4 9 11 29 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 0 11 17 10 73 14 7 4 15 1 11 15 37 3 8 7 8 5 8 12 3 6 12 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 8 -4 18 18 5 23 9 18 0 3 8 7 8 14 13 9 7 10 17 9 24 11 -3 7 6 3 7 12 7 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58 1 9 8 8 9 4 11 13 9 16 4 23 5 6 8 5 8 9 13 5 14 6 10 9 3 6 9 13 21</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,13 +161,13 @@
     <t>RM</t>
   </si>
   <si>
-    <t>63 67 55 61 62 59 63 67 63 63 60 63 61 56 57 67 62 65 54 57 62 57 67 59 70 62 57 64 67 59 61 43 54 63 60 70 65 63 56 63 62 58 66 68 70 63 70 54 61 58 64 63 63 61 62 40 63 66 60 66 63 64 62 63 62 65 56 61 56 58 57 58 54</t>
-  </si>
-  <si>
-    <t>26 16 15 12 35 13 24 22 11 20 21 25 21 19 13 17 17 22 10 23 16 10 14 13 15 25 27 9 23 19 38 13 24 18 26 31 21 0 19 17 24 16 16 31 33 0 28 12 17 17 20 17 21 31 18 7 33 18 29 33 33 19 14 15 18 14 15 33 7 21 10 18 21</t>
-  </si>
-  <si>
-    <t>31 -1 39 34 20 25 24 25 18 18 30 29 22 58 20 28 60 20 40 34 15 13 20 38 28 25 25 27 35 31 29 20 53 49 27 5 0 15 29 25 26 75 23 19 26 0 20 0 30 18 19 18 45 33 28 23 22 12 12 27 20 17 17 27 29 13 8 28</t>
+    <t>63 67 55 61 62 59 63 67 63 63 60 63 61 56 57 67 62 65 54 57 62 57 67 59 70 62 57 64 67 59 61 43 54 63 60 70 65 63 56 63 62 58 66 68 70 63 70 54 61 58 64 63 63 61 62 40 63 66 60 66 63 64 62 63 62 65 56 61 56 58 57 58 54 63</t>
+  </si>
+  <si>
+    <t>26 16 15 12 35 13 24 22 11 20 21 25 21 19 13 17 17 22 10 23 16 10 14 13 15 25 27 9 23 19 38 13 24 18 26 31 21 0 19 17 24 16 16 31 33 0 28 12 17 17 20 17 21 31 18 7 33 18 29 33 33 19 14 15 18 14 15 33 7 21 10 18 21 17</t>
+  </si>
+  <si>
+    <t>31 -1 39 34 20 25 24 25 18 18 30 29 22 58 20 28 60 20 40 34 15 13 20 38 28 25 25 27 35 31 29 20 53 49 27 5 0 15 29 25 26 75 23 19 26 0 20 0 30 18 19 18 45 33 28 23 22 12 12 27 20 17 17 27 29 13 8 28 18 31</t>
   </si>
   <si>
     <t>53 39 39 41 45 44 72 46 42 51 57 71 59 44 52 58 36 46 40 53 54 60 12 61 53 65 46 57 68 52 37 54 46 39 62 51 57 54 34 67 54 47 58 29 42 53 23 29 47 45 55 46 36 42 41 54 37 60 44 47 47 48 45 32 35 53 40 55 19 41 48 59 41 48 41 37 55 48 43 49 33 34 59 44 39 34 61 45 63 40 43 28 37 40</t>
@@ -176,7 +176,7 @@
     <t>0 0 1 0 10 0 0 0 0 24 40 8 2 0 0 0 0 0 15 6 0 0 0 23 -8 0 0 0 16 0 0 0 0 0 0 5 0 0 0 12 0 0 14 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 6 30 30 0 0 0 0 2 0 8 0 -4 8 14 0 0 8 0 7 12 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 16</t>
   </si>
   <si>
-    <t>16 10 2 23 19 0 0 7 0 11 0 38 -1 0 0 24 0 19 7 0 15 0 0 0 0 11 0 10 0 18 0 4 0 0 4 22 0 0 0 0 0 0 0 15 0 0 7 7 0 7 6 0 12 0 7 0 0 0 0 84 0 0 0 0 0 8 0 0 0 1 0 0 0 20 0 0 0 13 6 33 0 0 5 0 9 6 12 -1 7 0 6 14 16 0 9 0 0 0 0 0 0 0 26 0 0 11 10 1 18 8 0 0 0 0 0 4 0 0 0 5 17 14 0 0</t>
+    <t>16 10 2 23 19 0 0 7 0 11 0 38 -1 0 0 24 0 19 7 0 15 0 0 0 0 11 0 10 0 18 0 4 0 0 4 22 0 0 0 0 0 0 0 15 0 0 7 7 0 7 6 0 12 0 7 0 0 0 0 84 0 0 0 0 0 8 0 0 0 1 0 0 0 20 0 0 0 13 6 33 0 0 5 0 9 6 12 -1 7 0 6 14 16 0 9 0 0 0 0 0 0 0 26 0 0 11 10 1 18 8 0 0 0 0 0 4 0 0 0 5 17 14 0 0 4 15 15</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,22 +665,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -689,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="J2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -704,10 +704,10 @@
         <v>26</v>
       </c>
       <c r="O2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q2">
         <v>1045</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="D3">
         <v>18</v>
       </c>
       <c r="E3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H3">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I3">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J3">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>642</v>
+        <v>689</v>
       </c>
       <c r="M3">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="N3">
         <v>35</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1031</v>
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>20</v>
       </c>
       <c r="F2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -964,7 +964,7 @@
         <v>17</v>
       </c>
       <c r="J2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>336</v>
       </c>
       <c r="N2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O2">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q2">
         <v>1061</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F3">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G3">
         <v>84</v>
       </c>
       <c r="H3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I3">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J3">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>584</v>
+        <v>616</v>
       </c>
       <c r="M3">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="N3">
         <v>34</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1004</v>
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
@@ -1215,7 +1215,7 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -1227,22 +1227,22 @@
         <v>17</v>
       </c>
       <c r="F2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2">
         <v>13</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1365,13 +1365,13 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1431,7 +1431,7 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>

--- a/Base/Teams/Bills/Team Data.xlsx
+++ b/Base/Teams/Bills/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 3 3 3 -3 -2 7 6 3 3 4 1 2 4 2 5 7 2 2 6 4 34 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 2 2 2 1 -1 -3 9 13 15 0 2 8 1 14 0 -3 -1 12 6 3 6 -4 4 0 2 21 2 3 6 11 8 6 7 0 -1 8 3 1 11 8 0 8 -2 31 24 -4 5 12 12 4 5 7 3 0 -2 4 0 2 5 4 0 8 0 2 6 1 8 15 6 -1 2 2 6 -2 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 4 8 5 2 6 5 24 4 1 0 6 4 3 9 26 6 1 1 10 2 1 3 51 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 3 12 6 -2 7 8 1 0 5 16 5 2 3 5 -5 9 0 2 6 0 13 4 3 9 -1 12 6 3 -2 -1 0 3 1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 3 10 0 3 8 9 4 28 3 8 5 2 6 6 9 5 2 8 -1 5 3 3 -3 1 2 4 2 3 -1 4 10 1 11 15 0 -5 9 6 3 2 -2 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3 8 2 16 6 3 0 2 2 26 3 4 1 -2 12 3 1 2 4 1 8 7 4 5 2 1 3 3 5 1 5 3 25 2 6 2 -1 8 3 7 3 2 11 1 2 2 7 2 0 0 5</t>
-  </si>
-  <si>
-    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 19 15 16 9 3 15 14 12 12 8 5 9 6 10 7 -7 14 6 11 10 6 8 14 10 22 9 2 11 4 11 6 4 2 15 13 4 7 5 14 22 8 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 6 12 20 12 8 12 5 41 11 21 6 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 6 10 31 12 7 5 11 9 14 2 5 9 5 6 13 11 0 22 5 21 7 7 -5 10 12 21 6 4 5 7 -3 17 4 21 5 2 3 8 14 2 20 15 14 7 1 4 4 6 8 11 6 44 2 9 3 31 5 5 6 12 35 22 5 8 9 8 8 12 4 7 18 20 18 9 12 4 6 11 23 3 10 12 3 28 11 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 7 2 15 8 5 3 9 12 4 17 15 11 11 27 8 22 22 10 7 6 7 55 6 3 20 4 16 27 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 36 16 5 7 3 2 37 7 19 2 10 13 16 4 10 4 7 35 3 16 16 4 13 21 14 13 4 16 1 11 21 2 11 10 2 4 19 6 14 20 9 3 4 7 14 10 1 4 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 14 9 7 7 26 1 6 12 7 9 4 17 4 7 14 5 21 4 5 6 28 23 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3 12 9 15 9 10 12 11 4 10 9 7 11 7 7 7 8 28 20 11 8 7 13 7 8 12 9 4 13 3 10 1 12 9 11 18 9 11 11 6 5 28 9 17 15 19 2</t>
-  </si>
-  <si>
-    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 0 2 3 0 2 1 1 9 4 5 3 1 12 4 6 10 5 4 2 0 0 6 2 23 6 -3 7 5 3 9 3 4 2 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 6 3 25 2 7 12 2 -7 7 5 1 13 4 1 12 -4 13 5 2 3 6 7 1 -1 4 28 4 15 20 8 7 3 5 4 -6 5 3 15 6 -2 0 1 2 -1 -1 33 -2 3 0 13 -2 3 1 -3 1 1 0 5 -2 16 8 4 4 8 1 0 0 1 3 2 12 3 18 -9 4 10 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 10 4 13 1 2 3 0 1 14 2 10 2 4 4 0 3 3 14 5 6 7 9 8 8 0 3 2 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 3 2 4 12 -1 4 2 1 11 5 10 8 -2 0 1 -2 1 -3 3 3 2 4 3 29 20 3 33 5 12 10 9 -1 5 7 1 2 5 0 3 3 0 1 2 13 -4 9 5 2 15 1 1 6 -4 0 19 3 9 2 11 -2 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 2 -2 3 4 8 2 0 0 2 2 1 4 -5 4 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1 1 11 4 21 3 -2 0 7 8 -4 5 2 2 0 2 30 3 4 1 13 -1 1 7 1 7 8 5 7 5 0 9 5 9 0 0 2 1 16 1 7 31 2 0 2 2 1 3 1 9 6 8 11 3</t>
-  </si>
-  <si>
-    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 16 11 20 16 14 7 6 9 12 6 3 3 12 15 6 6 6 4 4 12 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 19 7 5 8 9 0 22 10 16 11 9 4 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 2 9 7 4 6 28 9 5 4 9 11 1 9 35 6 10 10 11 7 14 9 9 43 0 11 9 14 5 5 2 12 7 11 4 11 10 9 7 13 10 9 13 15 9 4 5 3 8 14 15 3 17 11 2 13 13 1 17 20 7 4 12 49 6 22 15 9 18 2 3 10 12 23 5 11 9 5 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 10 16 11 -2 8 5 5 9 6 6 19 6 -6 9 -2 6 4 5 10 7 9 7 3 7 8 22 6 6 10 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 9 6 23 22 0 6 32 2 8 31 10 16 2 7 12 6 1 19 11 6 13 27 11 4 1 1 11 31 11 21 8 30 5 5 7 14 1 8 9 5 2 4 9 11 29 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 0 11 17 10 73 14 7 4 15 1 11 15 37 3 8 7 8 5 8 12 3 6 12 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 8 -4 18 18 5 23 9 18 0 3 8 7 8 14 13 9 7 10 17 9 24 11 -3 7 6 3 7 12 7 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58 1 9 8 8 9 4 11 13 9 16 4 23 5 6 8 5 8 9 13 5 14 6 10 9 3 6 9 13 21</t>
+    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 3 3 3 -3 -2 7 6 3 3 4 1 2 4 2 5 7 2 2 6 4 34 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 2 2 2 1 -1 -3 9 13 15 0 2 8 1 14 0 -3 -1 12 6 3 6 -4 4 0 2 21 2 3 6 11 8 6 7 0 -1 8 3 1 11 8 0 8 -2 31 24 -4 5 12 12 4 5 7 3 0 -2 4 0 2 5 4 0 8 0 2 6 1 8 15 6 -1 2 2 6 -2 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 4 8 5 2 6 5 24 4 1 0 6 4 3 9 26 6 1 1 10 2 1 3 51 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 3 12 6 -2 7 8 1 0 5 16 5 2 3 5 -5 9 0 2 6 0 13 4 3 9 -1 12 6 3 -2 -1 0 3 1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 3 10 0 3 8 9 4 28 3 8 5 2 6 6 9 5 2 8 -1 5 3 3 -3 1 2 4 2 3 -1 4 10 1 11 15 0 -5 9 6 3 2 -2 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3 8 2 16 6 3 0 2 2 26 3 4 1 -2 12 3 1 2 4 1 8 7 4 5 2 1 3 3 5 1 5 3 25 2 6 2 -1 8 3 7 3 2 11 1 2 2 7 2 0 0 5 6 0 1 1 3 4 3 20 1 16 6 6 4 12 3 5 20 9 5 -2 14 4 7 3 6 11 5 5 4 2 2 12 4 4 6 5 4 2 3 8</t>
+  </si>
+  <si>
+    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 19 15 16 9 3 15 14 12 12 8 5 9 6 10 7 -7 14 6 11 10 6 8 14 10 22 9 2 11 4 11 6 4 2 15 13 4 7 5 14 22 8 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 6 12 20 12 8 12 5 41 11 21 6 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 6 10 31 12 7 5 11 9 14 2 5 9 5 6 13 11 0 22 5 21 7 7 -5 10 12 21 6 4 5 7 -3 17 4 21 5 2 3 8 14 2 20 15 14 7 1 4 4 6 8 11 6 44 2 9 3 31 5 5 6 12 35 22 5 8 9 8 8 12 4 7 18 20 18 9 12 4 6 11 23 3 10 12 3 28 11 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 7 2 15 8 5 3 9 12 4 17 15 11 11 27 8 22 22 10 7 6 7 55 6 3 20 4 16 27 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 36 16 5 7 3 2 37 7 19 2 10 13 16 4 10 4 7 35 3 16 16 4 13 21 14 13 4 16 1 11 21 2 11 10 2 4 19 6 14 20 9 3 4 7 14 10 1 4 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 14 9 7 7 26 1 6 12 7 9 4 17 4 7 14 5 21 4 5 6 28 23 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3 12 9 15 9 10 12 11 4 10 9 7 11 7 7 7 8 28 20 11 8 7 13 7 8 12 9 4 13 3 10 1 12 9 11 18 9 11 11 6 5 28 9 17 15 19 2 13 15 11 15 5 6 10 13 9 15 8 2</t>
+  </si>
+  <si>
+    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 0 2 3 0 2 1 1 9 4 5 3 1 12 4 6 10 5 4 2 0 0 6 2 23 6 -3 7 5 3 9 3 4 2 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 6 3 25 2 7 12 2 -7 7 5 1 13 4 1 12 -4 13 5 2 3 6 7 1 -1 4 28 4 15 20 8 7 3 5 4 -6 5 3 15 6 -2 0 1 2 -1 -1 33 -2 3 0 13 -2 3 1 -3 1 1 0 5 -2 16 8 4 4 8 1 0 0 1 3 2 12 3 18 -9 4 10 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 10 4 13 1 2 3 0 1 14 2 10 2 4 4 0 3 3 14 5 6 7 9 8 8 0 3 2 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 3 2 4 12 -1 4 2 1 11 5 10 8 -2 0 1 -2 1 -3 3 3 2 4 3 29 20 3 33 5 12 10 9 -1 5 7 1 2 5 0 3 3 0 1 2 13 -4 9 5 2 15 1 1 6 -4 0 19 3 9 2 11 -2 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 2 -2 3 4 8 2 0 0 2 2 1 4 -5 4 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1 1 11 4 21 3 -2 0 7 8 -4 5 2 2 0 2 30 3 4 1 13 -1 1 7 1 7 8 5 7 5 0 9 5 9 0 0 2 1 16 1 7 31 2 0 2 2 1 3 1 9 6 8 11 3 2 4 3 0 4 4 13 9 -4 8 6 4 1 11 -3 7 5 2 13 0 6</t>
+  </si>
+  <si>
+    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 16 11 20 16 14 7 6 9 12 6 3 3 12 15 6 6 6 4 4 12 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 19 7 5 8 9 0 22 10 16 11 9 4 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 2 9 7 4 6 28 9 5 4 9 11 1 9 35 6 10 10 11 7 14 9 9 43 0 11 9 14 5 5 2 12 7 11 4 11 10 9 7 13 10 9 13 15 9 4 5 3 8 14 15 3 17 11 2 13 13 1 17 20 7 4 12 49 6 22 15 9 18 2 3 10 12 23 5 11 9 5 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 10 16 11 -2 8 5 5 9 6 6 19 6 -6 9 -2 6 4 5 10 7 9 7 3 7 8 22 6 6 10 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 9 6 23 22 0 6 32 2 8 31 10 16 2 7 12 6 1 19 11 6 13 27 11 4 1 1 11 31 11 21 8 30 5 5 7 14 1 8 9 5 2 4 9 11 29 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 0 11 17 10 73 14 7 4 15 1 11 15 37 3 8 7 8 5 8 12 3 6 12 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 8 -4 18 18 5 23 9 18 0 3 8 7 8 14 13 9 7 10 17 9 24 11 -3 7 6 3 7 12 7 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58 1 9 8 8 9 4 11 13 9 16 4 23 5 6 8 5 8 9 13 5 14 6 10 9 3 6 9 13 21 8 15 0 9 10 61 15 24 4 1 8 15 17 11</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,13 +161,13 @@
     <t>RM</t>
   </si>
   <si>
-    <t>63 67 55 61 62 59 63 67 63 63 60 63 61 56 57 67 62 65 54 57 62 57 67 59 70 62 57 64 67 59 61 43 54 63 60 70 65 63 56 63 62 58 66 68 70 63 70 54 61 58 64 63 63 61 62 40 63 66 60 66 63 64 62 63 62 65 56 61 56 58 57 58 54 63</t>
-  </si>
-  <si>
-    <t>26 16 15 12 35 13 24 22 11 20 21 25 21 19 13 17 17 22 10 23 16 10 14 13 15 25 27 9 23 19 38 13 24 18 26 31 21 0 19 17 24 16 16 31 33 0 28 12 17 17 20 17 21 31 18 7 33 18 29 33 33 19 14 15 18 14 15 33 7 21 10 18 21 17</t>
-  </si>
-  <si>
-    <t>31 -1 39 34 20 25 24 25 18 18 30 29 22 58 20 28 60 20 40 34 15 13 20 38 28 25 25 27 35 31 29 20 53 49 27 5 0 15 29 25 26 75 23 19 26 0 20 0 30 18 19 18 45 33 28 23 22 12 12 27 20 17 17 27 29 13 8 28 18 31</t>
+    <t>63 67 55 61 62 59 63 67 63 63 60 63 61 56 57 67 62 65 54 57 62 57 67 59 70 62 57 64 67 59 61 43 54 63 60 70 65 63 56 63 62 58 66 68 70 63 70 54 61 58 64 63 63 61 62 40 63 66 60 66 63 64 62 63 62 65 56 61 56 58 57 58 54 63 64</t>
+  </si>
+  <si>
+    <t>26 16 15 12 35 13 24 22 11 20 21 25 21 19 13 17 17 22 10 23 16 10 14 13 15 25 27 9 23 19 38 13 24 18 26 31 21 0 19 17 24 16 16 31 33 0 28 12 17 17 20 17 21 31 18 7 33 18 29 33 33 19 14 15 18 14 15 33 7 21 10 18 21 17 23</t>
+  </si>
+  <si>
+    <t>31 -1 39 34 20 25 24 25 18 18 30 29 22 58 20 28 60 20 40 34 15 13 20 38 28 25 25 27 35 31 29 20 53 49 27 5 0 15 29 25 26 75 23 19 26 0 20 0 30 18 19 18 45 33 28 23 22 12 12 27 20 17 17 27 29 13 8 28 18 31 23 26 25</t>
   </si>
   <si>
     <t>53 39 39 41 45 44 72 46 42 51 57 71 59 44 52 58 36 46 40 53 54 60 12 61 53 65 46 57 68 52 37 54 46 39 62 51 57 54 34 67 54 47 58 29 42 53 23 29 47 45 55 46 36 42 41 54 37 60 44 47 47 48 45 32 35 53 40 55 19 41 48 59 41 48 41 37 55 48 43 49 33 34 59 44 39 34 61 45 63 40 43 28 37 40</t>
@@ -176,7 +176,7 @@
     <t>0 0 1 0 10 0 0 0 0 24 40 8 2 0 0 0 0 0 15 6 0 0 0 23 -8 0 0 0 16 0 0 0 0 0 0 5 0 0 0 12 0 0 14 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 6 30 30 0 0 0 0 2 0 8 0 -4 8 14 0 0 8 0 7 12 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 16</t>
   </si>
   <si>
-    <t>16 10 2 23 19 0 0 7 0 11 0 38 -1 0 0 24 0 19 7 0 15 0 0 0 0 11 0 10 0 18 0 4 0 0 4 22 0 0 0 0 0 0 0 15 0 0 7 7 0 7 6 0 12 0 7 0 0 0 0 84 0 0 0 0 0 8 0 0 0 1 0 0 0 20 0 0 0 13 6 33 0 0 5 0 9 6 12 -1 7 0 6 14 16 0 9 0 0 0 0 0 0 0 26 0 0 11 10 1 18 8 0 0 0 0 0 4 0 0 0 5 17 14 0 0 4 15 15</t>
+    <t>16 10 2 23 19 0 0 7 0 11 0 38 -1 0 0 24 0 19 7 0 15 0 0 0 0 11 0 10 0 18 0 4 0 0 4 22 0 0 0 0 0 0 0 15 0 0 7 7 0 7 6 0 12 0 7 0 0 0 0 84 0 0 0 0 0 8 0 0 0 1 0 0 0 20 0 0 0 13 6 33 0 0 5 0 9 6 12 -1 7 0 6 14 16 0 9 0 0 0 0 0 0 0 26 0 0 11 10 1 18 8 0 0 0 0 0 4 0 0 0 5 17 14 0 0 4 15 15 0 0 0 0 19</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,22 +665,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -689,28 +689,28 @@
         <v>19</v>
       </c>
       <c r="J2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="M2">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="N2">
         <v>26</v>
       </c>
       <c r="O2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2">
-        <v>1045</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>24</v>
       </c>
       <c r="C3">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <v>59</v>
       </c>
       <c r="I3">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J3">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>469</v>
       </c>
       <c r="N3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>20</v>
       </c>
       <c r="F2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -970,22 +970,22 @@
         <v>25</v>
       </c>
       <c r="L2">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="M2">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="N2">
         <v>38</v>
       </c>
       <c r="O2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P2">
         <v>29</v>
       </c>
       <c r="Q2">
-        <v>1061</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
       <c r="E3">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F3">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G3">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>386</v>
       </c>
       <c r="N3">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,7 +1215,7 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -1227,16 +1227,16 @@
         <v>17</v>
       </c>
       <c r="F2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>41</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,7 +1345,7 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1354,7 +1354,7 @@
         <v>19</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1371,7 +1371,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Bills/Team Data.xlsx
+++ b/Base/Teams/Bills/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 3 3 3 -3 -2 7 6 3 3 4 1 2 4 2 5 7 2 2 6 4 34 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 2 2 2 1 -1 -3 9 13 15 0 2 8 1 14 0 -3 -1 12 6 3 6 -4 4 0 2 21 2 3 6 11 8 6 7 0 -1 8 3 1 11 8 0 8 -2 31 24 -4 5 12 12 4 5 7 3 0 -2 4 0 2 5 4 0 8 0 2 6 1 8 15 6 -1 2 2 6 -2 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 4 8 5 2 6 5 24 4 1 0 6 4 3 9 26 6 1 1 10 2 1 3 51 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 3 12 6 -2 7 8 1 0 5 16 5 2 3 5 -5 9 0 2 6 0 13 4 3 9 -1 12 6 3 -2 -1 0 3 1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 3 10 0 3 8 9 4 28 3 8 5 2 6 6 9 5 2 8 -1 5 3 3 -3 1 2 4 2 3 -1 4 10 1 11 15 0 -5 9 6 3 2 -2 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3 8 2 16 6 3 0 2 2 26 3 4 1 -2 12 3 1 2 4 1 8 7 4 5 2 1 3 3 5 1 5 3 25 2 6 2 -1 8 3 7 3 2 11 1 2 2 7 2 0 0 5 6 0 1 1 3 4 3 20 1 16 6 6 4 12 3 5 20 9 5 -2 14 4 7 3 6 11 5 5 4 2 2 12 4 4 6 5 4 2 3 8</t>
-  </si>
-  <si>
-    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 19 15 16 9 3 15 14 12 12 8 5 9 6 10 7 -7 14 6 11 10 6 8 14 10 22 9 2 11 4 11 6 4 2 15 13 4 7 5 14 22 8 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 6 12 20 12 8 12 5 41 11 21 6 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 6 10 31 12 7 5 11 9 14 2 5 9 5 6 13 11 0 22 5 21 7 7 -5 10 12 21 6 4 5 7 -3 17 4 21 5 2 3 8 14 2 20 15 14 7 1 4 4 6 8 11 6 44 2 9 3 31 5 5 6 12 35 22 5 8 9 8 8 12 4 7 18 20 18 9 12 4 6 11 23 3 10 12 3 28 11 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 7 2 15 8 5 3 9 12 4 17 15 11 11 27 8 22 22 10 7 6 7 55 6 3 20 4 16 27 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 36 16 5 7 3 2 37 7 19 2 10 13 16 4 10 4 7 35 3 16 16 4 13 21 14 13 4 16 1 11 21 2 11 10 2 4 19 6 14 20 9 3 4 7 14 10 1 4 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 14 9 7 7 26 1 6 12 7 9 4 17 4 7 14 5 21 4 5 6 28 23 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3 12 9 15 9 10 12 11 4 10 9 7 11 7 7 7 8 28 20 11 8 7 13 7 8 12 9 4 13 3 10 1 12 9 11 18 9 11 11 6 5 28 9 17 15 19 2 13 15 11 15 5 6 10 13 9 15 8 2</t>
-  </si>
-  <si>
-    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 0 2 3 0 2 1 1 9 4 5 3 1 12 4 6 10 5 4 2 0 0 6 2 23 6 -3 7 5 3 9 3 4 2 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 6 3 25 2 7 12 2 -7 7 5 1 13 4 1 12 -4 13 5 2 3 6 7 1 -1 4 28 4 15 20 8 7 3 5 4 -6 5 3 15 6 -2 0 1 2 -1 -1 33 -2 3 0 13 -2 3 1 -3 1 1 0 5 -2 16 8 4 4 8 1 0 0 1 3 2 12 3 18 -9 4 10 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 10 4 13 1 2 3 0 1 14 2 10 2 4 4 0 3 3 14 5 6 7 9 8 8 0 3 2 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 3 2 4 12 -1 4 2 1 11 5 10 8 -2 0 1 -2 1 -3 3 3 2 4 3 29 20 3 33 5 12 10 9 -1 5 7 1 2 5 0 3 3 0 1 2 13 -4 9 5 2 15 1 1 6 -4 0 19 3 9 2 11 -2 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 2 -2 3 4 8 2 0 0 2 2 1 4 -5 4 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1 1 11 4 21 3 -2 0 7 8 -4 5 2 2 0 2 30 3 4 1 13 -1 1 7 1 7 8 5 7 5 0 9 5 9 0 0 2 1 16 1 7 31 2 0 2 2 1 3 1 9 6 8 11 3 2 4 3 0 4 4 13 9 -4 8 6 4 1 11 -3 7 5 2 13 0 6</t>
-  </si>
-  <si>
-    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 16 11 20 16 14 7 6 9 12 6 3 3 12 15 6 6 6 4 4 12 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 19 7 5 8 9 0 22 10 16 11 9 4 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 2 9 7 4 6 28 9 5 4 9 11 1 9 35 6 10 10 11 7 14 9 9 43 0 11 9 14 5 5 2 12 7 11 4 11 10 9 7 13 10 9 13 15 9 4 5 3 8 14 15 3 17 11 2 13 13 1 17 20 7 4 12 49 6 22 15 9 18 2 3 10 12 23 5 11 9 5 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 10 16 11 -2 8 5 5 9 6 6 19 6 -6 9 -2 6 4 5 10 7 9 7 3 7 8 22 6 6 10 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 9 6 23 22 0 6 32 2 8 31 10 16 2 7 12 6 1 19 11 6 13 27 11 4 1 1 11 31 11 21 8 30 5 5 7 14 1 8 9 5 2 4 9 11 29 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 0 11 17 10 73 14 7 4 15 1 11 15 37 3 8 7 8 5 8 12 3 6 12 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 8 -4 18 18 5 23 9 18 0 3 8 7 8 14 13 9 7 10 17 9 24 11 -3 7 6 3 7 12 7 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58 1 9 8 8 9 4 11 13 9 16 4 23 5 6 8 5 8 9 13 5 14 6 10 9 3 6 9 13 21 8 15 0 9 10 61 15 24 4 1 8 15 17 11</t>
+    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 3 3 3 -3 -2 7 6 3 3 4 1 2 4 2 5 7 2 2 6 4 34 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 2 2 2 1 -1 -3 9 13 15 0 2 8 1 14 0 -3 -1 12 6 3 6 -4 4 0 2 21 2 3 6 11 8 6 7 0 -1 8 3 1 11 8 0 8 -2 31 24 -4 5 12 12 4 5 7 3 0 -2 4 0 2 5 4 0 8 0 2 6 1 8 15 6 -1 2 2 6 -2 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 4 8 5 2 6 5 24 4 1 0 6 4 3 9 26 6 1 1 10 2 1 3 51 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 3 12 6 -2 7 8 1 0 5 16 5 2 3 5 -5 9 0 2 6 0 13 4 3 9 -1 12 6 3 -2 -1 0 3 1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 3 10 0 3 8 9 4 28 3 8 5 2 6 6 9 5 2 8 -1 5 3 3 -3 1 2 4 2 3 -1 4 10 1 11 15 0 -5 9 6 3 2 -2 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3 8 2 16 6 3 0 2 2 26 3 4 1 -2 12 3 1 2 4 1 8 7 4 5 2 1 3 3 5 1 5 3 25 2 6 2 -1 8 3 7 3 2 11 1 2 2 7 2 0 0 5 6 0 1 1 3 4 3 20 1 16 6 6 4 12 3 5 20 9 5 -2 14 4 7 3 6 11 5 5 4 2 2 12 4 4 6 5 4 2 3 8 2 40 0 0 -2 5 5 6 0 3 1 1 6 0 8 15 7 6 2 11 2 32 2 2 1 1 12 6 -2 -2 4 26 15 1 7 6 5 9 3 8 2 4 9 1 3 9 16 2 15 10 1 3 7 6 4 0</t>
+  </si>
+  <si>
+    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 19 15 16 9 3 15 14 12 12 8 5 9 6 10 7 -7 14 6 11 10 6 8 14 10 22 9 2 11 4 11 6 4 2 15 13 4 7 5 14 22 8 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 6 12 20 12 8 12 5 41 11 21 6 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 6 10 31 12 7 5 11 9 14 2 5 9 5 6 13 11 0 22 5 21 7 7 -5 10 12 21 6 4 5 7 -3 17 4 21 5 2 3 8 14 2 20 15 14 7 1 4 4 6 8 11 6 44 2 9 3 31 5 5 6 12 35 22 5 8 9 8 8 12 4 7 18 20 18 9 12 4 6 11 23 3 10 12 3 28 11 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 7 2 15 8 5 3 9 12 4 17 15 11 11 27 8 22 22 10 7 6 7 55 6 3 20 4 16 27 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 36 16 5 7 3 2 37 7 19 2 10 13 16 4 10 4 7 35 3 16 16 4 13 21 14 13 4 16 1 11 21 2 11 10 2 4 19 6 14 20 9 3 4 7 14 10 1 4 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 14 9 7 7 26 1 6 12 7 9 4 17 4 7 14 5 21 4 5 6 28 23 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3 12 9 15 9 10 12 11 4 10 9 7 11 7 7 7 8 28 20 11 8 7 13 7 8 12 9 4 13 3 10 1 12 9 11 18 9 11 11 6 5 28 9 17 15 19 2 13 15 11 15 5 6 10 13 9 15 8 2 17 6 10 10 19 11 6 2 5 3 9 13 17 3 12 14 8 3 28 9 4 27 -2 5 15 9 0 7 8 24 2 19 6 11 22 19 45 4 9 4 34 8 19 19 38 1</t>
+  </si>
+  <si>
+    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 0 2 3 0 2 1 1 9 4 5 3 1 12 4 6 10 5 4 2 0 0 6 2 23 6 -3 7 5 3 9 3 4 2 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 6 3 25 2 7 12 2 -7 7 5 1 13 4 1 12 -4 13 5 2 3 6 7 1 -1 4 28 4 15 20 8 7 3 5 4 -6 5 3 15 6 -2 0 1 2 -1 -1 33 -2 3 0 13 -2 3 1 -3 1 1 0 5 -2 16 8 4 4 8 1 0 0 1 3 2 12 3 18 -9 4 10 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 10 4 13 1 2 3 0 1 14 2 10 2 4 4 0 3 3 14 5 6 7 9 8 8 0 3 2 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 3 2 4 12 -1 4 2 1 11 5 10 8 -2 0 1 -2 1 -3 3 3 2 4 3 29 20 3 33 5 12 10 9 -1 5 7 1 2 5 0 3 3 0 1 2 13 -4 9 5 2 15 1 1 6 -4 0 19 3 9 2 11 -2 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 2 -2 3 4 8 2 0 0 2 2 1 4 -5 4 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1 1 11 4 21 3 -2 0 7 8 -4 5 2 2 0 2 30 3 4 1 13 -1 1 7 1 7 8 5 7 5 0 9 5 9 0 0 2 1 16 1 7 31 2 0 2 2 1 3 1 9 6 8 11 3 2 4 3 0 4 4 13 9 -4 8 6 4 1 11 -3 7 5 2 13 0 6 -1 10 0 4 2 0 1 4 -1 20 2 5 -2 1 3 1 -1 2 1 16 5 2 2 3 2 3 14 14 0 0 1 8 2 7 1 5 1</t>
+  </si>
+  <si>
+    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 16 11 20 16 14 7 6 9 12 6 3 3 12 15 6 6 6 4 4 12 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 19 7 5 8 9 0 22 10 16 11 9 4 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 2 9 7 4 6 28 9 5 4 9 11 1 9 35 6 10 10 11 7 14 9 9 43 0 11 9 14 5 5 2 12 7 11 4 11 10 9 7 13 10 9 13 15 9 4 5 3 8 14 15 3 17 11 2 13 13 1 17 20 7 4 12 49 6 22 15 9 18 2 3 10 12 23 5 11 9 5 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 10 16 11 -2 8 5 5 9 6 6 19 6 -6 9 -2 6 4 5 10 7 9 7 3 7 8 22 6 6 10 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 9 6 23 22 0 6 32 2 8 31 10 16 2 7 12 6 1 19 11 6 13 27 11 4 1 1 11 31 11 21 8 30 5 5 7 14 1 8 9 5 2 4 9 11 29 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 0 11 17 10 73 14 7 4 15 1 11 15 37 3 8 7 8 5 8 12 3 6 12 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 8 -4 18 18 5 23 9 18 0 3 8 7 8 14 13 9 7 10 17 9 24 11 -3 7 6 3 7 12 7 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58 1 9 8 8 9 4 11 13 9 16 4 23 5 6 8 5 8 9 13 5 14 6 10 9 3 6 9 13 21 8 15 0 9 10 61 15 24 4 1 8 15 17 11 16 9 5 5 2 10 9 30 4 12 10 2 5 8 7 10 7 1 43 4 7 15 3 6 2 18</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>63 67 55 61 62 59 63 67 63 63 60 63 61 56 57 67 62 65 54 57 62 57 67 59 70 62 57 64 67 59 61 43 54 63 60 70 65 63 56 63 62 58 66 68 70 63 70 54 61 58 64 63 63 61 62 40 63 66 60 66 63 64 62 63 62 65 56 61 56 58 57 58 54 63 64</t>
-  </si>
-  <si>
-    <t>26 16 15 12 35 13 24 22 11 20 21 25 21 19 13 17 17 22 10 23 16 10 14 13 15 25 27 9 23 19 38 13 24 18 26 31 21 0 19 17 24 16 16 31 33 0 28 12 17 17 20 17 21 31 18 7 33 18 29 33 33 19 14 15 18 14 15 33 7 21 10 18 21 17 23</t>
-  </si>
-  <si>
-    <t>31 -1 39 34 20 25 24 25 18 18 30 29 22 58 20 28 60 20 40 34 15 13 20 38 28 25 25 27 35 31 29 20 53 49 27 5 0 15 29 25 26 75 23 19 26 0 20 0 30 18 19 18 45 33 28 23 22 12 12 27 20 17 17 27 29 13 8 28 18 31 23 26 25</t>
-  </si>
-  <si>
-    <t>53 39 39 41 45 44 72 46 42 51 57 71 59 44 52 58 36 46 40 53 54 60 12 61 53 65 46 57 68 52 37 54 46 39 62 51 57 54 34 67 54 47 58 29 42 53 23 29 47 45 55 46 36 42 41 54 37 60 44 47 47 48 45 32 35 53 40 55 19 41 48 59 41 48 41 37 55 48 43 49 33 34 59 44 39 34 61 45 63 40 43 28 37 40</t>
-  </si>
-  <si>
-    <t>0 0 1 0 10 0 0 0 0 24 40 8 2 0 0 0 0 0 15 6 0 0 0 23 -8 0 0 0 16 0 0 0 0 0 0 5 0 0 0 12 0 0 14 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 6 30 30 0 0 0 0 2 0 8 0 -4 8 14 0 0 8 0 7 12 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 16</t>
-  </si>
-  <si>
-    <t>16 10 2 23 19 0 0 7 0 11 0 38 -1 0 0 24 0 19 7 0 15 0 0 0 0 11 0 10 0 18 0 4 0 0 4 22 0 0 0 0 0 0 0 15 0 0 7 7 0 7 6 0 12 0 7 0 0 0 0 84 0 0 0 0 0 8 0 0 0 1 0 0 0 20 0 0 0 13 6 33 0 0 5 0 9 6 12 -1 7 0 6 14 16 0 9 0 0 0 0 0 0 0 26 0 0 11 10 1 18 8 0 0 0 0 0 4 0 0 0 5 17 14 0 0 4 15 15 0 0 0 0 19</t>
+    <t>63 67 55 61 62 59 63 67 63 63 60 63 61 56 57 67 62 65 54 57 62 57 67 59 70 62 57 64 67 59 61 43 54 63 60 70 65 63 56 63 62 58 66 68 70 63 70 54 61 58 64 63 63 61 62 40 63 66 60 66 63 64 62 63 62 65 56 61 56 58 57 58 54 63 64 46 67 60 62 66 64</t>
+  </si>
+  <si>
+    <t>26 16 15 12 35 13 24 22 11 20 21 25 21 19 13 17 17 22 10 23 16 10 14 13 15 25 27 9 23 19 38 13 24 18 26 31 21 0 19 17 24 16 16 31 33 0 28 12 17 17 20 17 21 31 18 7 33 18 29 33 33 19 14 15 18 14 15 33 7 21 10 18 21 17 23 7 15 16 21 25 26</t>
+  </si>
+  <si>
+    <t>31 -1 39 34 20 25 24 25 18 18 30 29 22 58 20 28 60 20 40 34 15 13 20 38 28 25 25 27 35 31 29 20 53 49 27 5 0 15 29 25 26 75 23 19 26 0 20 0 30 18 19 18 45 33 28 23 22 12 12 27 20 17 17 27 29 13 8 28 18 31 23 26 25 15 5 15 0</t>
+  </si>
+  <si>
+    <t>53 39 39 41 45 44 72 46 42 51 57 71 59 44 52 58 36 46 40 53 54 60 12 61 53 65 46 57 68 52 37 54 46 39 62 51 57 54 34 67 54 47 58 29 42 53 23 29 47 45 55 46 36 42 41 54 37 60 44 47 47 48 45 32 35 53 40 55 19 41 48 59 41 48 41 37 55 48 43 49 33 34 59 44 39 34 61 45 63 40 43 28 37 40 42 28 21 22 49 53 13 43</t>
+  </si>
+  <si>
+    <t>0 0 1 0 10 0 0 0 0 24 40 8 2 0 0 0 0 0 15 6 0 0 0 23 -8 0 0 0 16 0 0 0 0 0 0 5 0 0 0 12 0 0 14 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 6 30 30 0 0 0 0 2 0 8 0 -4 8 14 0 0 8 0 7 12 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 16 0 0 0 0 0 3 7 0</t>
+  </si>
+  <si>
+    <t>16 10 2 23 19 0 0 7 0 11 0 38 -1 0 0 24 0 19 7 0 15 0 0 0 0 11 0 10 0 18 0 4 0 0 4 22 0 0 0 0 0 0 0 15 0 0 7 7 0 7 6 0 12 0 7 0 0 0 0 84 0 0 0 0 0 8 0 0 0 1 0 0 0 20 0 0 0 13 6 33 0 0 5 0 9 6 12 -1 7 0 6 14 16 0 9 0 0 0 0 0 0 0 26 0 0 11 10 1 18 8 0 0 0 0 0 4 0 0 0 5 17 14 0 0 4 15 15 0 0 0 0 19 0 5 3 17 0 0 9 0 0 0 2 52</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -689,28 +689,28 @@
         <v>19</v>
       </c>
       <c r="J2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="M2">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="N2">
         <v>26</v>
       </c>
       <c r="O2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2">
         <v>21</v>
       </c>
       <c r="Q2">
-        <v>1115</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>535</v>
+        <v>566</v>
       </c>
       <c r="D3">
         <v>19</v>
       </c>
       <c r="E3">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F3">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I3">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J3">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -940,52 +940,52 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H2">
         <v>11</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>588</v>
+        <v>645</v>
       </c>
       <c r="M2">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="N2">
         <v>38</v>
       </c>
       <c r="O2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q2">
-        <v>1114</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F3">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="G3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I3">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J3">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>386</v>
       </c>
       <c r="N3">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G2">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -1239,16 +1239,16 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N2">
         <v>10</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,13 +1348,13 @@
         <v>13</v>
       </c>
       <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
         <v>20</v>
       </c>
-      <c r="D2">
-        <v>19</v>
-      </c>
       <c r="E2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1431,13 +1431,13 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Bills/Team Data.xlsx
+++ b/Base/Teams/Bills/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 3 3 3 -3 -2 7 6 3 3 4 1 2 4 2 5 7 2 2 6 4 34 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 2 2 2 1 -1 -3 9 13 15 0 2 8 1 14 0 -3 -1 12 6 3 6 -4 4 0 2 21 2 3 6 11 8 6 7 0 -1 8 3 1 11 8 0 8 -2 31 24 -4 5 12 12 4 5 7 3 0 -2 4 0 2 5 4 0 8 0 2 6 1 8 15 6 -1 2 2 6 -2 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 4 8 5 2 6 5 24 4 1 0 6 4 3 9 26 6 1 1 10 2 1 3 51 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 3 12 6 -2 7 8 1 0 5 16 5 2 3 5 -5 9 0 2 6 0 13 4 3 9 -1 12 6 3 -2 -1 0 3 1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 3 10 0 3 8 9 4 28 3 8 5 2 6 6 9 5 2 8 -1 5 3 3 -3 1 2 4 2 3 -1 4 10 1 11 15 0 -5 9 6 3 2 -2 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3 8 2 16 6 3 0 2 2 26 3 4 1 -2 12 3 1 2 4 1 8 7 4 5 2 1 3 3 5 1 5 3 25 2 6 2 -1 8 3 7 3 2 11 1 2 2 7 2 0 0 5 6 0 1 1 3 4 3 20 1 16 6 6 4 12 3 5 20 9 5 -2 14 4 7 3 6 11 5 5 4 2 2 12 4 4 6 5 4 2 3 8 2 40 0 0 -2 5 5 6 0 3 1 1 6 0 8 15 7 6 2 11 2 32 2 2 1 1 12 6 -2 -2 4 26 15 1 7 6 5 9 3 8 2 4 9 1 3 9 16 2 15 10 1 3 7 6 4 0</t>
-  </si>
-  <si>
-    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 19 15 16 9 3 15 14 12 12 8 5 9 6 10 7 -7 14 6 11 10 6 8 14 10 22 9 2 11 4 11 6 4 2 15 13 4 7 5 14 22 8 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 6 12 20 12 8 12 5 41 11 21 6 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 6 10 31 12 7 5 11 9 14 2 5 9 5 6 13 11 0 22 5 21 7 7 -5 10 12 21 6 4 5 7 -3 17 4 21 5 2 3 8 14 2 20 15 14 7 1 4 4 6 8 11 6 44 2 9 3 31 5 5 6 12 35 22 5 8 9 8 8 12 4 7 18 20 18 9 12 4 6 11 23 3 10 12 3 28 11 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 7 2 15 8 5 3 9 12 4 17 15 11 11 27 8 22 22 10 7 6 7 55 6 3 20 4 16 27 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 36 16 5 7 3 2 37 7 19 2 10 13 16 4 10 4 7 35 3 16 16 4 13 21 14 13 4 16 1 11 21 2 11 10 2 4 19 6 14 20 9 3 4 7 14 10 1 4 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 14 9 7 7 26 1 6 12 7 9 4 17 4 7 14 5 21 4 5 6 28 23 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3 12 9 15 9 10 12 11 4 10 9 7 11 7 7 7 8 28 20 11 8 7 13 7 8 12 9 4 13 3 10 1 12 9 11 18 9 11 11 6 5 28 9 17 15 19 2 13 15 11 15 5 6 10 13 9 15 8 2 17 6 10 10 19 11 6 2 5 3 9 13 17 3 12 14 8 3 28 9 4 27 -2 5 15 9 0 7 8 24 2 19 6 11 22 19 45 4 9 4 34 8 19 19 38 1</t>
-  </si>
-  <si>
-    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 0 2 3 0 2 1 1 9 4 5 3 1 12 4 6 10 5 4 2 0 0 6 2 23 6 -3 7 5 3 9 3 4 2 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 6 3 25 2 7 12 2 -7 7 5 1 13 4 1 12 -4 13 5 2 3 6 7 1 -1 4 28 4 15 20 8 7 3 5 4 -6 5 3 15 6 -2 0 1 2 -1 -1 33 -2 3 0 13 -2 3 1 -3 1 1 0 5 -2 16 8 4 4 8 1 0 0 1 3 2 12 3 18 -9 4 10 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 10 4 13 1 2 3 0 1 14 2 10 2 4 4 0 3 3 14 5 6 7 9 8 8 0 3 2 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 3 2 4 12 -1 4 2 1 11 5 10 8 -2 0 1 -2 1 -3 3 3 2 4 3 29 20 3 33 5 12 10 9 -1 5 7 1 2 5 0 3 3 0 1 2 13 -4 9 5 2 15 1 1 6 -4 0 19 3 9 2 11 -2 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 2 -2 3 4 8 2 0 0 2 2 1 4 -5 4 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1 1 11 4 21 3 -2 0 7 8 -4 5 2 2 0 2 30 3 4 1 13 -1 1 7 1 7 8 5 7 5 0 9 5 9 0 0 2 1 16 1 7 31 2 0 2 2 1 3 1 9 6 8 11 3 2 4 3 0 4 4 13 9 -4 8 6 4 1 11 -3 7 5 2 13 0 6 -1 10 0 4 2 0 1 4 -1 20 2 5 -2 1 3 1 -1 2 1 16 5 2 2 3 2 3 14 14 0 0 1 8 2 7 1 5 1</t>
-  </si>
-  <si>
-    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 16 11 20 16 14 7 6 9 12 6 3 3 12 15 6 6 6 4 4 12 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 19 7 5 8 9 0 22 10 16 11 9 4 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 2 9 7 4 6 28 9 5 4 9 11 1 9 35 6 10 10 11 7 14 9 9 43 0 11 9 14 5 5 2 12 7 11 4 11 10 9 7 13 10 9 13 15 9 4 5 3 8 14 15 3 17 11 2 13 13 1 17 20 7 4 12 49 6 22 15 9 18 2 3 10 12 23 5 11 9 5 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 10 16 11 -2 8 5 5 9 6 6 19 6 -6 9 -2 6 4 5 10 7 9 7 3 7 8 22 6 6 10 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 9 6 23 22 0 6 32 2 8 31 10 16 2 7 12 6 1 19 11 6 13 27 11 4 1 1 11 31 11 21 8 30 5 5 7 14 1 8 9 5 2 4 9 11 29 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 0 11 17 10 73 14 7 4 15 1 11 15 37 3 8 7 8 5 8 12 3 6 12 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 8 -4 18 18 5 23 9 18 0 3 8 7 8 14 13 9 7 10 17 9 24 11 -3 7 6 3 7 12 7 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58 1 9 8 8 9 4 11 13 9 16 4 23 5 6 8 5 8 9 13 5 14 6 10 9 3 6 9 13 21 8 15 0 9 10 61 15 24 4 1 8 15 17 11 16 9 5 5 2 10 9 30 4 12 10 2 5 8 7 10 7 1 43 4 7 15 3 6 2 18</t>
+    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 3 3 3 -3 -2 7 6 3 3 4 1 2 4 2 5 7 2 2 6 4 34 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 2 2 2 1 -1 -3 9 13 15 0 2 8 1 14 0 -3 -1 12 6 3 6 -4 4 0 2 21 2 3 6 11 8 6 7 0 -1 8 3 1 11 8 0 8 -2 31 24 -4 5 12 12 4 5 7 3 0 -2 4 0 2 5 4 0 8 0 2 6 1 8 15 6 -1 2 2 6 -2 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 4 8 5 2 6 5 24 4 1 0 6 4 3 9 26 6 1 1 10 2 1 3 51 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 3 12 6 -2 7 8 1 0 5 16 5 2 3 5 -5 9 0 2 6 0 13 4 3 9 -1 12 6 3 -2 -1 0 3 1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 3 10 0 3 8 9 4 28 3 8 5 2 6 6 9 5 2 8 -1 5 3 3 -3 1 2 4 2 3 -1 4 10 1 11 15 0 -5 9 6 3 2 -2 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 14 -3 10 22 1 29 18 4 11 5 18 23 2 0 7 8 3 8 2 16 6 3 0 2 2 26 3 4 1 -2 12 3 1 2 4 1 8 7 4 5 2 1 3 3 5 1 5 3 25 2 6 2 -1 8 3 7 3 2 11 1 2 2 7 2 0 0 5 6 0 1 1 3 4 3 20 1 16 6 6 4 12 3 5 20 9 5 -2 14 4 7 3 6 11 5 5 4 2 2 12 4 4 6 5 4 2 3 8 2 40 0 0 -2 5 5 6 0 3 1 1 6 0 8 15 7 6 2 11 2 32 2 2 1 1 12 6 -2 -2 4 26 15 1 7 6 5 9 3 8 2 4 9 1 3 9 16 2 15 10 1 3 7 6 4 0 7 11 1 1 3 14 7 1 -2 9 11 1 1 -1 5 1 9 3 4 2 4</t>
+  </si>
+  <si>
+    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 19 15 16 9 3 15 14 12 12 8 5 9 6 10 7 -7 14 6 11 10 6 8 14 10 22 9 2 11 4 11 6 4 2 15 13 4 7 5 14 22 8 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 6 12 20 12 8 12 5 41 11 21 6 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 6 10 31 12 7 5 11 9 14 2 5 9 5 6 13 11 0 22 5 21 7 7 -5 10 12 21 6 4 5 7 -3 17 4 21 5 2 3 8 14 2 20 15 14 7 1 4 4 6 8 11 6 44 2 9 3 31 5 5 6 12 35 22 5 8 9 8 8 12 4 7 18 20 18 9 12 4 6 11 23 3 10 12 3 28 11 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 7 2 15 8 5 3 9 12 4 17 15 11 11 27 8 22 22 10 7 6 7 55 6 3 20 4 16 27 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 36 16 5 7 3 2 37 7 19 2 10 13 16 4 10 4 7 35 3 16 16 4 13 21 14 13 4 16 1 11 21 2 11 10 2 4 19 6 14 20 9 3 4 7 14 10 1 4 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 14 9 7 7 26 1 6 12 7 9 4 17 4 7 14 5 21 4 5 6 28 23 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 1 10 11 5 3 25 24 21 9 5 6 10 12 6 1 13 9 -2 10 2 4 10 15 9 12 12 3 4 4 4 2 15 1 24 3 12 9 15 9 10 12 11 4 10 9 7 11 7 7 7 8 28 20 11 8 7 13 7 8 12 9 4 13 3 10 1 12 9 11 18 9 11 11 6 5 28 9 17 15 19 2 13 15 11 15 5 6 10 13 9 15 8 2 17 6 10 10 19 11 6 2 5 3 9 13 17 3 12 14 8 3 28 9 4 27 -2 5 15 9 0 7 8 24 2 19 6 11 22 19 45 4 9 4 34 8 19 19 38 1 13 1 7 4 15 3 5 1 8 1 24 1 7 5 18 7 75 17 8 5 9 -7 28 12 16 19</t>
+  </si>
+  <si>
+    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 0 2 3 0 2 1 1 9 4 5 3 1 12 4 6 10 5 4 2 0 0 6 2 23 6 -3 7 5 3 9 3 4 2 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 6 3 25 2 7 12 2 -7 7 5 1 13 4 1 12 -4 13 5 2 3 6 7 1 -1 4 28 4 15 20 8 7 3 5 4 -6 5 3 15 6 -2 0 1 2 -1 -1 33 -2 3 0 13 -2 3 1 -3 1 1 0 5 -2 16 8 4 4 8 1 0 0 1 3 2 12 3 18 -9 4 10 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 10 4 13 1 2 3 0 1 14 2 10 2 4 4 0 3 3 14 5 6 7 9 8 8 0 3 2 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 3 2 4 12 -1 4 2 1 11 5 10 8 -2 0 1 -2 1 -3 3 3 2 4 3 29 20 3 33 5 12 10 9 -1 5 7 1 2 5 0 3 3 0 1 2 13 -4 9 5 2 15 1 1 6 -4 0 19 3 9 2 11 -2 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 2 -2 3 4 8 2 0 0 2 2 1 4 -5 4 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 0 3 47 4 2 12 2 3 1 5 -1 8 2 1 1 2 9 1 -2 2 0 7 21 1 4 3 1 1 11 4 21 3 -2 0 7 8 -4 5 2 2 0 2 30 3 4 1 13 -1 1 7 1 7 8 5 7 5 0 9 5 9 0 0 2 1 16 1 7 31 2 0 2 2 1 3 1 9 6 8 11 3 2 4 3 0 4 4 13 9 -4 8 6 4 1 11 -3 7 5 2 13 0 6 -1 10 0 4 2 0 1 4 -1 20 2 5 -2 1 3 1 -1 2 1 16 5 2 2 3 2 3 14 14 0 0 1 8 2 7 1 5 1 4 4 34 6 7 8 1 22 -2 4 4 5 4 3 -2 3 7 3 20 25 6 5 3 5 -3 4 2</t>
+  </si>
+  <si>
+    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 16 11 20 16 14 7 6 9 12 6 3 3 12 15 6 6 6 4 4 12 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 19 7 5 8 9 0 22 10 16 11 9 4 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 2 9 7 4 6 28 9 5 4 9 11 1 9 35 6 10 10 11 7 14 9 9 43 0 11 9 14 5 5 2 12 7 11 4 11 10 9 7 13 10 9 13 15 9 4 5 3 8 14 15 3 17 11 2 13 13 1 17 20 7 4 12 49 6 22 15 9 18 2 3 10 12 23 5 11 9 5 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 10 16 11 -2 8 5 5 9 6 6 19 6 -6 9 -2 6 4 5 10 7 9 7 3 7 8 22 6 6 10 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 9 6 23 22 0 6 32 2 8 31 10 16 2 7 12 6 1 19 11 6 13 27 11 4 1 1 11 31 11 21 8 30 5 5 7 14 1 8 9 5 2 4 9 11 29 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 0 11 17 10 73 14 7 4 15 1 11 15 37 3 8 7 8 5 8 12 3 6 12 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 8 -4 18 18 5 23 9 18 0 3 8 7 8 14 13 9 7 10 17 9 24 11 -3 7 6 3 7 12 7 6 15 5 7 5 9 20 8 16 23 18 5 13 16 13 7 5 20 5 6 24 4 18 0 8 5 11 10 6 -7 14 58 1 9 8 8 9 4 11 13 9 16 4 23 5 6 8 5 8 9 13 5 14 6 10 9 3 6 9 13 21 8 15 0 9 10 61 15 24 4 1 8 15 17 11 16 9 5 5 2 10 9 30 4 12 10 2 5 8 7 10 7 1 43 4 7 15 3 6 2 18 1 5 5 5 21 12 10 9 6 2 26 4 8 7 7 8 3 8 5 6 5 7 11 64 19 25 5 10 16 4 26 8</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>63 67 55 61 62 59 63 67 63 63 60 63 61 56 57 67 62 65 54 57 62 57 67 59 70 62 57 64 67 59 61 43 54 63 60 70 65 63 56 63 62 58 66 68 70 63 70 54 61 58 64 63 63 61 62 40 63 66 60 66 63 64 62 63 62 65 56 61 56 58 57 58 54 63 64 46 67 60 62 66 64</t>
-  </si>
-  <si>
-    <t>26 16 15 12 35 13 24 22 11 20 21 25 21 19 13 17 17 22 10 23 16 10 14 13 15 25 27 9 23 19 38 13 24 18 26 31 21 0 19 17 24 16 16 31 33 0 28 12 17 17 20 17 21 31 18 7 33 18 29 33 33 19 14 15 18 14 15 33 7 21 10 18 21 17 23 7 15 16 21 25 26</t>
-  </si>
-  <si>
-    <t>31 -1 39 34 20 25 24 25 18 18 30 29 22 58 20 28 60 20 40 34 15 13 20 38 28 25 25 27 35 31 29 20 53 49 27 5 0 15 29 25 26 75 23 19 26 0 20 0 30 18 19 18 45 33 28 23 22 12 12 27 20 17 17 27 29 13 8 28 18 31 23 26 25 15 5 15 0</t>
-  </si>
-  <si>
-    <t>53 39 39 41 45 44 72 46 42 51 57 71 59 44 52 58 36 46 40 53 54 60 12 61 53 65 46 57 68 52 37 54 46 39 62 51 57 54 34 67 54 47 58 29 42 53 23 29 47 45 55 46 36 42 41 54 37 60 44 47 47 48 45 32 35 53 40 55 19 41 48 59 41 48 41 37 55 48 43 49 33 34 59 44 39 34 61 45 63 40 43 28 37 40 42 28 21 22 49 53 13 43</t>
-  </si>
-  <si>
-    <t>0 0 1 0 10 0 0 0 0 24 40 8 2 0 0 0 0 0 15 6 0 0 0 23 -8 0 0 0 16 0 0 0 0 0 0 5 0 0 0 12 0 0 14 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 6 30 30 0 0 0 0 2 0 8 0 -4 8 14 0 0 8 0 7 12 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 16 0 0 0 0 0 3 7 0</t>
-  </si>
-  <si>
-    <t>16 10 2 23 19 0 0 7 0 11 0 38 -1 0 0 24 0 19 7 0 15 0 0 0 0 11 0 10 0 18 0 4 0 0 4 22 0 0 0 0 0 0 0 15 0 0 7 7 0 7 6 0 12 0 7 0 0 0 0 84 0 0 0 0 0 8 0 0 0 1 0 0 0 20 0 0 0 13 6 33 0 0 5 0 9 6 12 -1 7 0 6 14 16 0 9 0 0 0 0 0 0 0 26 0 0 11 10 1 18 8 0 0 0 0 0 4 0 0 0 5 17 14 0 0 4 15 15 0 0 0 0 19 0 5 3 17 0 0 9 0 0 0 2 52</t>
+    <t>63 67 55 61 62 59 63 67 63 63 60 63 61 56 57 67 62 65 54 57 62 57 67 59 70 62 57 64 67 59 61 43 54 63 60 70 65 63 56 63 62 58 66 68 70 63 70 54 61 58 64 63 63 61 62 40 63 66 60 66 63 64 62 63 62 65 56 61 56 58 57 58 54 63 64 46 67 60 62 66 64 65</t>
+  </si>
+  <si>
+    <t>26 16 15 12 35 13 24 22 11 20 21 25 21 19 13 17 17 22 10 23 16 10 14 13 15 25 27 9 23 19 38 13 24 18 26 31 21 0 19 17 24 16 16 31 33 0 28 12 17 17 20 17 21 31 18 7 33 18 29 33 33 19 14 15 18 14 15 33 7 21 10 18 21 17 23 7 15 16 21 25 26 26</t>
+  </si>
+  <si>
+    <t>31 -1 39 34 20 25 24 25 18 18 30 29 22 58 20 28 60 20 40 34 15 13 20 38 28 25 25 27 35 31 29 20 53 49 27 5 0 15 29 25 26 75 23 19 26 0 20 0 30 18 19 18 45 33 28 23 22 12 12 27 20 17 17 27 29 13 8 28 18 31 23 26 25 15 5 15 0 22</t>
+  </si>
+  <si>
+    <t>53 39 39 41 45 44 72 46 42 51 57 71 59 44 52 58 36 46 40 53 54 60 12 61 53 65 46 57 68 52 37 54 46 39 62 51 57 54 34 67 54 47 58 29 42 53 23 29 47 45 55 46 36 42 41 54 37 60 44 47 47 48 45 32 35 53 40 55 19 41 48 59 41 48 41 37 55 48 43 49 33 34 59 44 39 34 61 45 63 40 43 28 37 40 42 28 21 22 49 53 13 43 50 37 42 54 46</t>
+  </si>
+  <si>
+    <t>0 0 1 0 10 0 0 0 0 24 40 8 2 0 0 0 0 0 15 6 0 0 0 23 -8 0 0 0 16 0 0 0 0 0 0 5 0 0 0 12 0 0 14 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 6 30 30 0 0 0 0 2 0 8 0 -4 8 14 0 0 8 0 7 12 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 16 0 0 0 0 0 3 7 0 0 0 15 13 45</t>
+  </si>
+  <si>
+    <t>16 10 2 23 19 0 0 7 0 11 0 38 -1 0 0 24 0 19 7 0 15 0 0 0 0 11 0 10 0 18 0 4 0 0 4 22 0 0 0 0 0 0 0 15 0 0 7 7 0 7 6 0 12 0 7 0 0 0 0 84 0 0 0 0 0 8 0 0 0 1 0 0 0 20 0 0 0 13 6 33 0 0 5 0 9 6 12 -1 7 0 6 14 16 0 9 0 0 0 0 0 0 0 26 0 0 11 10 1 18 8 0 0 0 0 0 4 0 0 0 5 17 14 0 0 4 15 15 0 0 0 0 19 0 5 3 17 0 0 9 0 0 0 2 52 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D2">
         <v>27</v>
@@ -677,19 +677,19 @@
         <v>21</v>
       </c>
       <c r="F2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>452</v>
       </c>
       <c r="N2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q2">
         <v>1246</v>
@@ -721,37 +721,37 @@
         <v>26</v>
       </c>
       <c r="C3">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="G3">
         <v>84</v>
       </c>
       <c r="H3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>689</v>
+        <v>726</v>
       </c>
       <c r="M3">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="N3">
         <v>36</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1107</v>
+        <v>1171</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D2">
         <v>22</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>381</v>
       </c>
       <c r="N2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2">
         <v>1225</v>
@@ -996,37 +996,37 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
       <c r="E3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F3">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G3">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H3">
         <v>66</v>
       </c>
       <c r="I3">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J3">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>616</v>
+        <v>662</v>
       </c>
       <c r="M3">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="N3">
         <v>52</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1066</v>
+        <v>1143</v>
       </c>
     </row>
   </sheetData>
@@ -1215,28 +1215,28 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
+        <v>121</v>
+      </c>
+      <c r="G2">
         <v>117</v>
       </c>
-      <c r="G2">
-        <v>113</v>
-      </c>
       <c r="H2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2">
         <v>42</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1368,10 +1368,10 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1423,7 +1423,7 @@
         <v>57</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
